--- a/documentation-generator/vocab_csv/gdpr.xlsx
+++ b/documentation-generator/vocab_csv/gdpr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="366">
   <si>
     <t>Term</t>
   </si>
@@ -1198,6 +1198,24 @@
   </si>
   <si>
     <t>DPIA outcome status indicating high residual risk</t>
+  </si>
+  <si>
+    <t>DPIAProcessingRecommendation</t>
+  </si>
+  <si>
+    <t>DPIARecommendsProcessingContinue</t>
+  </si>
+  <si>
+    <t>DPIARecommendsProcessingNotContinue</t>
+  </si>
+  <si>
+    <t>DPIAConformity</t>
+  </si>
+  <si>
+    <t>DPIAConformant</t>
+  </si>
+  <si>
+    <t>DPIANonConformant</t>
   </si>
 </sst>
 </file>
@@ -8939,6 +8957,36 @@
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
     </row>
+    <row r="16">
+      <c r="A16" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AB50">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/documentation-generator/vocab_csv/gdpr.xlsx
+++ b/documentation-generator/vocab_csv/gdpr.xlsx
@@ -9,6 +9,7 @@
     <sheet state="visible" name="GDPR_LegalRights" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="GDPR_DataTransfers" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="GDPR_DPIA" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="GDPR_compliance" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="402">
   <si>
     <t>Term</t>
   </si>
@@ -1203,19 +1204,127 @@
     <t>DPIAProcessingRecommendation</t>
   </si>
   <si>
+    <t>DPIA Processing Recommendation</t>
+  </si>
+  <si>
+    <t>Recommendation from the DPIA regarding processing</t>
+  </si>
+  <si>
+    <t>Harshvardhan J. Pandit, Georg P Krog</t>
+  </si>
+  <si>
     <t>DPIARecommendsProcessingContinue</t>
   </si>
   <si>
+    <t>DPIA Recommends Processing Continue</t>
+  </si>
+  <si>
+    <t>Recommendation from a DPIA that the processing may continue</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:DPIAProcessingRecommendation</t>
+  </si>
+  <si>
     <t>DPIARecommendsProcessingNotContinue</t>
   </si>
   <si>
+    <t>DPIA Recommends Processing Not Continue</t>
+  </si>
+  <si>
+    <t>Recommendation from a DPIA that the processing should not continue</t>
+  </si>
+  <si>
     <t>DPIAConformity</t>
   </si>
   <si>
+    <t>DPIA Conformity</t>
+  </si>
+  <si>
+    <t>Conformity of a process with a DPIA</t>
+  </si>
+  <si>
+    <t>dpv:ConformanceStatus</t>
+  </si>
+  <si>
     <t>DPIAConformant</t>
   </si>
   <si>
+    <t>DPIA Conformant</t>
+  </si>
+  <si>
+    <t>Expressing the specified process is conformant with a DPIA</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:DPIAConformity</t>
+  </si>
+  <si>
     <t>DPIANonConformant</t>
+  </si>
+  <si>
+    <t>DPIA Non-Conformant</t>
+  </si>
+  <si>
+    <t>Expressing the specified process is not conformant with a DPIA</t>
+  </si>
+  <si>
+    <t>GDPR specific statuses in dpv-gdpr</t>
+  </si>
+  <si>
+    <t>GDPRLawfulness</t>
+  </si>
+  <si>
+    <t>GDPR Lawfulness</t>
+  </si>
+  <si>
+    <t>State of being lawful or legally compliant for GDPR</t>
+  </si>
+  <si>
+    <t>dpv:Lawfulness</t>
+  </si>
+  <si>
+    <t>GDPRCompliant</t>
+  </si>
+  <si>
+    <t>GDPR Compliant</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:GDPRLawulness</t>
+  </si>
+  <si>
+    <t>GDPRNonCompliant</t>
+  </si>
+  <si>
+    <t>GDPR Non-compliant</t>
+  </si>
+  <si>
+    <t>State of being unlawful or legally non-compliant for GDPR</t>
+  </si>
+  <si>
+    <t>GDPRComplianceUnknown</t>
+  </si>
+  <si>
+    <t>GDPR Compliance Unknown</t>
+  </si>
+  <si>
+    <t>State where lawfulness or compliance with GDPR is unknown</t>
+  </si>
+  <si>
+    <t>Propotionality</t>
+  </si>
+  <si>
+    <t>Proportionality</t>
+  </si>
+  <si>
+    <t>The evaluation of whether processing is proportional and in balance with impact to rights</t>
+  </si>
+  <si>
+    <t>SystematicExtensiveEvaluation</t>
+  </si>
+  <si>
+    <t>Systematic Extensive Evaluation</t>
+  </si>
+  <si>
+    <t>The systematic and extensive evaluation of personal aspects</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1334,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1322,8 +1431,17 @@
       <color rgb="FF000000"/>
       <name val="&quot;Arial&quot;"/>
     </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1340,6 +1458,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -1393,7 +1517,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1512,6 +1636,45 @@
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1578,6 +1741,10 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -8961,31 +9128,277 @@
       <c r="A16" s="10" t="s">
         <v>360</v>
       </c>
+      <c r="B16" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="13">
+        <v>44856.0</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>361</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="13">
+        <v>44856.0</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>362</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="13">
+        <v>44856.0</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="13">
+        <v>44856.0</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="10" t="s">
         <v>363</v>
       </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>364</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="13">
+        <v>44856.0</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>365</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="13">
+        <v>44856.0</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AB50">
@@ -9021,4 +9434,449 @@
   </hyperlinks>
   <drawing r:id="rId15"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="32.13"/>
+    <col customWidth="1" min="2" max="2" width="20.88"/>
+    <col customWidth="1" min="3" max="3" width="38.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51">
+        <v>44856.0</v>
+      </c>
+      <c r="L3" s="49"/>
+      <c r="M3" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="50"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51">
+        <v>44856.0</v>
+      </c>
+      <c r="L4" s="49"/>
+      <c r="M4" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="50"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>391</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51">
+        <v>44856.0</v>
+      </c>
+      <c r="L5" s="49"/>
+      <c r="M5" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="50"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51">
+        <v>44856.0</v>
+      </c>
+      <c r="L6" s="49"/>
+      <c r="M6" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="50"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+    </row>
+    <row r="7">
+      <c r="J7" s="39"/>
+      <c r="K7" s="13"/>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="39"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="39"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+    </row>
+    <row r="10">
+      <c r="C10" s="41"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="13"/>
+      <c r="O10" s="39"/>
+    </row>
+    <row r="11">
+      <c r="C11" s="41"/>
+      <c r="K11" s="13"/>
+      <c r="O11" s="39"/>
+    </row>
+    <row r="12">
+      <c r="K12" s="13"/>
+      <c r="O12" s="39"/>
+    </row>
+    <row r="13">
+      <c r="K13" s="13"/>
+      <c r="O13" s="39"/>
+    </row>
+    <row r="14">
+      <c r="K14" s="13"/>
+      <c r="O14" s="39"/>
+    </row>
+    <row r="15">
+      <c r="K15" s="13"/>
+      <c r="O15" s="39"/>
+    </row>
+    <row r="16">
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17">
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18">
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19">
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20">
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21">
+      <c r="K21" s="13"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:AD50">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$M2="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AD50">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$M2="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AD50">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$M2="changed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/documentation-generator/vocab_csv/gdpr.xlsx
+++ b/documentation-generator/vocab_csv/gdpr.xlsx
@@ -9,7 +9,8 @@
     <sheet state="visible" name="GDPR_LegalRights" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="GDPR_DataTransfers" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="GDPR_DPIA" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="GDPR_compliance" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="GDPR_DPIA_properties" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="GDPR_compliance" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="440">
   <si>
     <t>Term</t>
   </si>
@@ -1189,7 +1190,16 @@
     <t>DPIA Outcome Risks Mitigated</t>
   </si>
   <si>
-    <t>DPIA outcome status indicated (all) risks have been mitigated</t>
+    <t>DPIA outcome status indicating (all) risks have been mitigated</t>
+  </si>
+  <si>
+    <t>DPIAOutcomeRisksAcceptable</t>
+  </si>
+  <si>
+    <t>DPIA Outcome Risks Acceptable</t>
+  </si>
+  <si>
+    <t>DPIA outcome status indicating residual risks remain and are acceptable for continuation</t>
   </si>
   <si>
     <t>DPIAOutcomeHighResidualRisk</t>
@@ -1198,7 +1208,7 @@
     <t>DPIA Outcome High Residual Risk</t>
   </si>
   <si>
-    <t>DPIA outcome status indicating high residual risk</t>
+    <t>DPIA outcome status indicating high residual risk which are not acceptable for continuation</t>
   </si>
   <si>
     <t>DPIAProcessingRecommendation</t>
@@ -1265,6 +1275,111 @@
   </si>
   <si>
     <t>Expressing the specified process is not conformant with a DPIA</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>ParentProperty</t>
+  </si>
+  <si>
+    <t>dct:created</t>
+  </si>
+  <si>
+    <t>For expressing when the documentation (e.g. DPIA Necessity Assessment, or DPIA Procedure, or DPIA outcome) was created</t>
+  </si>
+  <si>
+    <t>dct:modified</t>
+  </si>
+  <si>
+    <t>For expressing when the documentation (e.g. DPIA Necessity Assessment, or DPIA Procedure, or DPIA outcome) was last modified</t>
+  </si>
+  <si>
+    <t>dct:dateSubmitted</t>
+  </si>
+  <si>
+    <t>For expressing when the documentation (e.g. DPIA Necessity Assessment, or DPIA Procedure, or DPIA outcome) was submitted for audit or approval</t>
+  </si>
+  <si>
+    <t>dct:dateAccepted</t>
+  </si>
+  <si>
+    <t>For expressing when the documentation (e.g. DPIA Necessity Assessment, or DPIA Procedure, or DPIA outcome) was accepted through audit or approval</t>
+  </si>
+  <si>
+    <t>dct:temporal</t>
+  </si>
+  <si>
+    <t>For expressing the temporal coverage of the DPIA document or process</t>
+  </si>
+  <si>
+    <t>dct:valid</t>
+  </si>
+  <si>
+    <t>For expressing the temporal date or range of validity of the DPIA document or process. This refers to the time period for which the DPIA is considered valid, and does not refer to the temporal period associated with processing (see dct:temporal instead). The assumption is that after this period, the DPIA should be re-evaluated or some process should be triggered</t>
+  </si>
+  <si>
+    <t>dct:conformsTo</t>
+  </si>
+  <si>
+    <t>For expressing an existing standard, guideline, or requirements to which the DPIA document or process will be conforming to. This could be external guidelines published by an Authority, or internal guidelines established by the organisation</t>
+  </si>
+  <si>
+    <t>dct:title</t>
+  </si>
+  <si>
+    <t>Indicates a title of the DPIA for human comprehension</t>
+  </si>
+  <si>
+    <t>dct:description</t>
+  </si>
+  <si>
+    <t>Indicates a description of the DPIA for human comprehension</t>
+  </si>
+  <si>
+    <t>dct:identifier</t>
+  </si>
+  <si>
+    <t>Indicates an identifier associated with the DPIA documentation or process. Identifiers may be reused from existing systems, or created for the purposes of record management</t>
+  </si>
+  <si>
+    <t>dct:isVersionOf</t>
+  </si>
+  <si>
+    <t>For expressing prior versions or iterations of the DPIA document or process</t>
+  </si>
+  <si>
+    <t>dct:subject</t>
+  </si>
+  <si>
+    <t>For expressing the subject of the DPIA document or process, where subject refers to the point of focus. For expressing what is affected or included within the DPIA, please see dct:coverage</t>
+  </si>
+  <si>
+    <t>dct:coverage</t>
+  </si>
+  <si>
+    <t>For expressing coverage (e.g. jurisdictions, products, services) of the DPIA document or process. For temporal coverage, please see dct:temporal. The coverage can be expressed using dpv:PersonalDataHandling, or using another concept, or even be a link or reference to a document, or a textual description</t>
+  </si>
+  <si>
+    <t>dpv:hasStatus</t>
+  </si>
+  <si>
+    <t>For expressing the status of the DPIA document or process. Here different statuses are used to convey different contextual meanings. For example, dpv:ActivityStatus expresses the state of the activity in terms of whether it is ongoing or completed, and dpv:AuditStatus expresses the state of the audit process in terms of being required, approved, or rejected. These are applied over each step of the DPIA i.e. DPIANecessityAssessment, DPIAProcedure, and DPIAOutcome. Similarly, a process also uses hasStatus with DPIAConformity to indicate adherence to the results of the DPIA process.</t>
+  </si>
+  <si>
+    <t>dct:hasPart</t>
+  </si>
+  <si>
+    <t>For expressing something contains a DPIA document or process contains as a part. For example, as some dpv:DPIA dct:hasPart DPIANecessityAssessment</t>
+  </si>
+  <si>
+    <t>dct:isPartOf</t>
+  </si>
+  <si>
+    <t>For expressing a DPIA document or process is part of another. For example, as some DPIANecessityAssessment dct:isPartOf some dpv:DPIA</t>
   </si>
   <si>
     <t>GDPR specific statuses in dpv-gdpr</t>
@@ -1334,7 +1449,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1432,6 +1547,11 @@
       <name val="&quot;Arial&quot;"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1517,7 +1637,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1636,7 +1756,16 @@
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1648,13 +1777,13 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1666,20 +1795,20 @@
     <xf borderId="0" fillId="4" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -1716,6 +1845,18 @@
       </fill>
       <border/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE06666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
   </dxfs>
 </styleSheet>
 </file>
@@ -1745,6 +1886,10 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -8453,7 +8598,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>312</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -8597,39 +8742,1154 @@
       <c r="AB4" s="11"/>
     </row>
     <row r="5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="13"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="39"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="13">
+        <v>44734.0</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="13">
+        <v>44734.0</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="13">
+        <v>44734.0</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="8"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="13"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="13">
+        <v>44734.0</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="13">
+        <v>44734.0</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="13">
+        <v>44734.0</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="13">
+        <v>44734.0</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="8"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="K14" s="13"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="39"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="13">
+        <v>44734.0</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="13">
+        <v>44734.0</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="13">
+        <v>44734.0</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="13">
+        <v>44864.0</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="39"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="13">
+        <v>44734.0</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="K20" s="13"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="13">
+        <v>44856.0</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="13">
+        <v>44856.0</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="13">
+        <v>44856.0</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="8"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="K24" s="13"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="13">
+        <v>44856.0</v>
+      </c>
+      <c r="L25" s="11"/>
+      <c r="M25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="13">
+        <v>44856.0</v>
+      </c>
+      <c r="L26" s="11"/>
+      <c r="M26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="13">
+        <v>44856.0</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:AB56">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$M2="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AB56">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$M2="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AB56">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$M2="changed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="O2"/>
+    <hyperlink r:id="rId2" ref="O3"/>
+    <hyperlink r:id="rId3" ref="O4"/>
+    <hyperlink r:id="rId4" ref="O6"/>
+    <hyperlink r:id="rId5" ref="O7"/>
+    <hyperlink r:id="rId6" ref="O8"/>
+    <hyperlink r:id="rId7" ref="O10"/>
+    <hyperlink r:id="rId8" ref="O11"/>
+    <hyperlink r:id="rId9" ref="O12"/>
+    <hyperlink r:id="rId10" ref="O13"/>
+    <hyperlink r:id="rId11" ref="O15"/>
+    <hyperlink r:id="rId12" ref="O16"/>
+    <hyperlink r:id="rId13" ref="O17"/>
+    <hyperlink r:id="rId14" ref="O19"/>
+  </hyperlinks>
+  <drawing r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C2" sqref="C2" pane="topRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="22.5"/>
+    <col customWidth="1" min="3" max="3" width="34.88"/>
+    <col customWidth="1" min="4" max="4" width="12.13"/>
+    <col customWidth="1" min="5" max="5" width="11.0"/>
+    <col customWidth="1" min="6" max="6" width="11.88"/>
+    <col customWidth="1" min="10" max="10" width="11.5"/>
+    <col customWidth="1" min="11" max="12" width="9.63"/>
+    <col customWidth="1" min="13" max="13" width="14.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+    </row>
+    <row r="5">
       <c r="A5" s="10" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>19</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="13">
-        <v>44734.0</v>
-      </c>
-      <c r="L5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
       <c r="M5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="39"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -8646,38 +9906,28 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>326</v>
+        <v>396</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>330</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="13">
-        <v>44734.0</v>
-      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="11"/>
       <c r="M6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
@@ -8694,38 +9944,28 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>330</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="13">
-        <v>44734.0</v>
-      </c>
-      <c r="L7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
       <c r="M7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
@@ -8742,38 +9982,28 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>19</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>401</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="13">
-        <v>44734.0</v>
-      </c>
-      <c r="L8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
       <c r="M8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -8790,38 +10020,28 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>330</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>403</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="13">
-        <v>44734.0</v>
-      </c>
-      <c r="L9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
       <c r="M9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
@@ -8837,87 +10057,67 @@
       <c r="AB9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>342</v>
+      <c r="A10" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>404</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>343</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>330</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="13">
-        <v>44734.0</v>
-      </c>
-      <c r="L10" s="11"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>344</v>
+        <v>406</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>345</v>
+        <v>406</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>330</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="13">
-        <v>44734.0</v>
-      </c>
+      <c r="K11" s="13"/>
       <c r="L11" s="11"/>
       <c r="M11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="26"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
@@ -8934,38 +10134,28 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>19</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="13">
-        <v>44734.0</v>
-      </c>
-      <c r="L12" s="11"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
@@ -8982,38 +10172,28 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>330</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="13">
-        <v>44734.0</v>
-      </c>
+      <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
@@ -9030,38 +10210,28 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>354</v>
+        <v>412</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>330</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="13">
-        <v>44734.0</v>
-      </c>
+      <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O14" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
@@ -9078,38 +10248,28 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>357</v>
+        <v>414</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>330</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="13">
-        <v>44734.0</v>
-      </c>
+      <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
@@ -9126,35 +10286,27 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>19</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>417</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="13">
-        <v>44856.0</v>
-      </c>
+      <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="10" t="s">
-        <v>363</v>
-      </c>
+      <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
@@ -9172,35 +10324,27 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>330</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="13">
-        <v>44856.0</v>
-      </c>
+      <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="10" t="s">
-        <v>363</v>
-      </c>
+      <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
@@ -9217,226 +10361,2952 @@
       <c r="AB17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="13">
-        <v>44856.0</v>
-      </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
+      <c r="C18" s="44"/>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="13">
-        <v>44856.0</v>
-      </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
+      <c r="C19" s="44"/>
     </row>
     <row r="20">
-      <c r="A20" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="13">
-        <v>44856.0</v>
-      </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
+      <c r="A20" s="41"/>
+      <c r="C20" s="44"/>
     </row>
     <row r="21">
-      <c r="A21" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="13">
-        <v>44856.0</v>
-      </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
+      <c r="C21" s="44"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="41"/>
+    </row>
+    <row r="23">
+      <c r="C23" s="41"/>
+    </row>
+    <row r="24">
+      <c r="C24" s="44"/>
+    </row>
+    <row r="25">
+      <c r="C25" s="32"/>
+    </row>
+    <row r="26">
+      <c r="C26" s="32"/>
+    </row>
+    <row r="27">
+      <c r="C27" s="32"/>
+    </row>
+    <row r="28">
+      <c r="C28" s="32"/>
+    </row>
+    <row r="29">
+      <c r="C29" s="32"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="32"/>
+    </row>
+    <row r="31">
+      <c r="C31" s="32"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="32"/>
+    </row>
+    <row r="33">
+      <c r="C33" s="32"/>
+    </row>
+    <row r="34">
+      <c r="C34" s="32"/>
+    </row>
+    <row r="35">
+      <c r="C35" s="32"/>
+    </row>
+    <row r="36">
+      <c r="C36" s="32"/>
+    </row>
+    <row r="37">
+      <c r="C37" s="32"/>
+    </row>
+    <row r="38">
+      <c r="C38" s="32"/>
+    </row>
+    <row r="39">
+      <c r="C39" s="32"/>
+    </row>
+    <row r="40">
+      <c r="C40" s="32"/>
+    </row>
+    <row r="41">
+      <c r="C41" s="32"/>
+    </row>
+    <row r="42">
+      <c r="C42" s="32"/>
+    </row>
+    <row r="43">
+      <c r="C43" s="32"/>
+    </row>
+    <row r="44">
+      <c r="C44" s="32"/>
+    </row>
+    <row r="45">
+      <c r="C45" s="32"/>
+    </row>
+    <row r="46">
+      <c r="C46" s="32"/>
+    </row>
+    <row r="47">
+      <c r="C47" s="32"/>
+    </row>
+    <row r="48">
+      <c r="C48" s="32"/>
+    </row>
+    <row r="49">
+      <c r="C49" s="32"/>
+    </row>
+    <row r="50">
+      <c r="C50" s="32"/>
+    </row>
+    <row r="51">
+      <c r="C51" s="32"/>
+    </row>
+    <row r="52">
+      <c r="C52" s="32"/>
+    </row>
+    <row r="53">
+      <c r="C53" s="32"/>
+    </row>
+    <row r="54">
+      <c r="C54" s="32"/>
+    </row>
+    <row r="55">
+      <c r="C55" s="32"/>
+    </row>
+    <row r="56">
+      <c r="C56" s="32"/>
+    </row>
+    <row r="57">
+      <c r="C57" s="32"/>
+    </row>
+    <row r="58">
+      <c r="C58" s="32"/>
+    </row>
+    <row r="59">
+      <c r="C59" s="32"/>
+    </row>
+    <row r="60">
+      <c r="C60" s="32"/>
+    </row>
+    <row r="61">
+      <c r="C61" s="32"/>
+    </row>
+    <row r="62">
+      <c r="C62" s="32"/>
+    </row>
+    <row r="63">
+      <c r="C63" s="32"/>
+    </row>
+    <row r="64">
+      <c r="C64" s="32"/>
+    </row>
+    <row r="65">
+      <c r="C65" s="32"/>
+    </row>
+    <row r="66">
+      <c r="C66" s="32"/>
+    </row>
+    <row r="67">
+      <c r="C67" s="32"/>
+    </row>
+    <row r="68">
+      <c r="C68" s="32"/>
+    </row>
+    <row r="69">
+      <c r="C69" s="32"/>
+    </row>
+    <row r="70">
+      <c r="C70" s="32"/>
+    </row>
+    <row r="71">
+      <c r="C71" s="32"/>
+    </row>
+    <row r="72">
+      <c r="C72" s="32"/>
+    </row>
+    <row r="73">
+      <c r="C73" s="32"/>
+    </row>
+    <row r="74">
+      <c r="C74" s="32"/>
+    </row>
+    <row r="75">
+      <c r="C75" s="32"/>
+    </row>
+    <row r="76">
+      <c r="C76" s="32"/>
+    </row>
+    <row r="77">
+      <c r="C77" s="32"/>
+    </row>
+    <row r="78">
+      <c r="C78" s="32"/>
+    </row>
+    <row r="79">
+      <c r="C79" s="32"/>
+    </row>
+    <row r="80">
+      <c r="C80" s="32"/>
+    </row>
+    <row r="81">
+      <c r="C81" s="32"/>
+    </row>
+    <row r="82">
+      <c r="C82" s="32"/>
+    </row>
+    <row r="83">
+      <c r="C83" s="32"/>
+    </row>
+    <row r="84">
+      <c r="C84" s="32"/>
+    </row>
+    <row r="85">
+      <c r="C85" s="32"/>
+    </row>
+    <row r="86">
+      <c r="C86" s="32"/>
+    </row>
+    <row r="87">
+      <c r="C87" s="32"/>
+    </row>
+    <row r="88">
+      <c r="C88" s="32"/>
+    </row>
+    <row r="89">
+      <c r="C89" s="32"/>
+    </row>
+    <row r="90">
+      <c r="C90" s="32"/>
+    </row>
+    <row r="91">
+      <c r="C91" s="32"/>
+    </row>
+    <row r="92">
+      <c r="C92" s="32"/>
+    </row>
+    <row r="93">
+      <c r="C93" s="32"/>
+    </row>
+    <row r="94">
+      <c r="C94" s="32"/>
+    </row>
+    <row r="95">
+      <c r="C95" s="32"/>
+    </row>
+    <row r="96">
+      <c r="C96" s="32"/>
+    </row>
+    <row r="97">
+      <c r="C97" s="32"/>
+    </row>
+    <row r="98">
+      <c r="C98" s="32"/>
+    </row>
+    <row r="99">
+      <c r="C99" s="32"/>
+    </row>
+    <row r="100">
+      <c r="C100" s="32"/>
+    </row>
+    <row r="101">
+      <c r="C101" s="32"/>
+    </row>
+    <row r="102">
+      <c r="C102" s="32"/>
+    </row>
+    <row r="103">
+      <c r="C103" s="32"/>
+    </row>
+    <row r="104">
+      <c r="C104" s="32"/>
+    </row>
+    <row r="105">
+      <c r="C105" s="32"/>
+    </row>
+    <row r="106">
+      <c r="C106" s="32"/>
+    </row>
+    <row r="107">
+      <c r="C107" s="32"/>
+    </row>
+    <row r="108">
+      <c r="C108" s="32"/>
+    </row>
+    <row r="109">
+      <c r="C109" s="32"/>
+    </row>
+    <row r="110">
+      <c r="C110" s="32"/>
+    </row>
+    <row r="111">
+      <c r="C111" s="32"/>
+    </row>
+    <row r="112">
+      <c r="C112" s="32"/>
+    </row>
+    <row r="113">
+      <c r="C113" s="32"/>
+    </row>
+    <row r="114">
+      <c r="C114" s="32"/>
+    </row>
+    <row r="115">
+      <c r="C115" s="32"/>
+    </row>
+    <row r="116">
+      <c r="C116" s="32"/>
+    </row>
+    <row r="117">
+      <c r="C117" s="32"/>
+    </row>
+    <row r="118">
+      <c r="C118" s="32"/>
+    </row>
+    <row r="119">
+      <c r="C119" s="32"/>
+    </row>
+    <row r="120">
+      <c r="C120" s="32"/>
+    </row>
+    <row r="121">
+      <c r="C121" s="32"/>
+    </row>
+    <row r="122">
+      <c r="C122" s="32"/>
+    </row>
+    <row r="123">
+      <c r="C123" s="32"/>
+    </row>
+    <row r="124">
+      <c r="C124" s="32"/>
+    </row>
+    <row r="125">
+      <c r="C125" s="32"/>
+    </row>
+    <row r="126">
+      <c r="C126" s="32"/>
+    </row>
+    <row r="127">
+      <c r="C127" s="32"/>
+    </row>
+    <row r="128">
+      <c r="C128" s="32"/>
+    </row>
+    <row r="129">
+      <c r="C129" s="32"/>
+    </row>
+    <row r="130">
+      <c r="C130" s="32"/>
+    </row>
+    <row r="131">
+      <c r="C131" s="32"/>
+    </row>
+    <row r="132">
+      <c r="C132" s="32"/>
+    </row>
+    <row r="133">
+      <c r="C133" s="32"/>
+    </row>
+    <row r="134">
+      <c r="C134" s="32"/>
+    </row>
+    <row r="135">
+      <c r="C135" s="32"/>
+    </row>
+    <row r="136">
+      <c r="C136" s="32"/>
+    </row>
+    <row r="137">
+      <c r="C137" s="32"/>
+    </row>
+    <row r="138">
+      <c r="C138" s="32"/>
+    </row>
+    <row r="139">
+      <c r="C139" s="32"/>
+    </row>
+    <row r="140">
+      <c r="C140" s="32"/>
+    </row>
+    <row r="141">
+      <c r="C141" s="32"/>
+    </row>
+    <row r="142">
+      <c r="C142" s="32"/>
+    </row>
+    <row r="143">
+      <c r="C143" s="32"/>
+    </row>
+    <row r="144">
+      <c r="C144" s="32"/>
+    </row>
+    <row r="145">
+      <c r="C145" s="32"/>
+    </row>
+    <row r="146">
+      <c r="C146" s="32"/>
+    </row>
+    <row r="147">
+      <c r="C147" s="32"/>
+    </row>
+    <row r="148">
+      <c r="C148" s="32"/>
+    </row>
+    <row r="149">
+      <c r="C149" s="32"/>
+    </row>
+    <row r="150">
+      <c r="C150" s="32"/>
+    </row>
+    <row r="151">
+      <c r="C151" s="32"/>
+    </row>
+    <row r="152">
+      <c r="C152" s="32"/>
+    </row>
+    <row r="153">
+      <c r="C153" s="32"/>
+    </row>
+    <row r="154">
+      <c r="C154" s="32"/>
+    </row>
+    <row r="155">
+      <c r="C155" s="32"/>
+    </row>
+    <row r="156">
+      <c r="C156" s="32"/>
+    </row>
+    <row r="157">
+      <c r="C157" s="32"/>
+    </row>
+    <row r="158">
+      <c r="C158" s="32"/>
+    </row>
+    <row r="159">
+      <c r="C159" s="32"/>
+    </row>
+    <row r="160">
+      <c r="C160" s="32"/>
+    </row>
+    <row r="161">
+      <c r="C161" s="32"/>
+    </row>
+    <row r="162">
+      <c r="C162" s="32"/>
+    </row>
+    <row r="163">
+      <c r="C163" s="32"/>
+    </row>
+    <row r="164">
+      <c r="C164" s="32"/>
+    </row>
+    <row r="165">
+      <c r="C165" s="32"/>
+    </row>
+    <row r="166">
+      <c r="C166" s="32"/>
+    </row>
+    <row r="167">
+      <c r="C167" s="32"/>
+    </row>
+    <row r="168">
+      <c r="C168" s="32"/>
+    </row>
+    <row r="169">
+      <c r="C169" s="32"/>
+    </row>
+    <row r="170">
+      <c r="C170" s="32"/>
+    </row>
+    <row r="171">
+      <c r="C171" s="32"/>
+    </row>
+    <row r="172">
+      <c r="C172" s="32"/>
+    </row>
+    <row r="173">
+      <c r="C173" s="32"/>
+    </row>
+    <row r="174">
+      <c r="C174" s="32"/>
+    </row>
+    <row r="175">
+      <c r="C175" s="32"/>
+    </row>
+    <row r="176">
+      <c r="C176" s="32"/>
+    </row>
+    <row r="177">
+      <c r="C177" s="32"/>
+    </row>
+    <row r="178">
+      <c r="C178" s="32"/>
+    </row>
+    <row r="179">
+      <c r="C179" s="32"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="32"/>
+    </row>
+    <row r="181">
+      <c r="C181" s="32"/>
+    </row>
+    <row r="182">
+      <c r="C182" s="32"/>
+    </row>
+    <row r="183">
+      <c r="C183" s="32"/>
+    </row>
+    <row r="184">
+      <c r="C184" s="32"/>
+    </row>
+    <row r="185">
+      <c r="C185" s="32"/>
+    </row>
+    <row r="186">
+      <c r="C186" s="32"/>
+    </row>
+    <row r="187">
+      <c r="C187" s="32"/>
+    </row>
+    <row r="188">
+      <c r="C188" s="32"/>
+    </row>
+    <row r="189">
+      <c r="C189" s="32"/>
+    </row>
+    <row r="190">
+      <c r="C190" s="32"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="32"/>
+    </row>
+    <row r="192">
+      <c r="C192" s="32"/>
+    </row>
+    <row r="193">
+      <c r="C193" s="32"/>
+    </row>
+    <row r="194">
+      <c r="C194" s="32"/>
+    </row>
+    <row r="195">
+      <c r="C195" s="32"/>
+    </row>
+    <row r="196">
+      <c r="C196" s="32"/>
+    </row>
+    <row r="197">
+      <c r="C197" s="32"/>
+    </row>
+    <row r="198">
+      <c r="C198" s="32"/>
+    </row>
+    <row r="199">
+      <c r="C199" s="32"/>
+    </row>
+    <row r="200">
+      <c r="C200" s="32"/>
+    </row>
+    <row r="201">
+      <c r="C201" s="32"/>
+    </row>
+    <row r="202">
+      <c r="C202" s="32"/>
+    </row>
+    <row r="203">
+      <c r="C203" s="32"/>
+    </row>
+    <row r="204">
+      <c r="C204" s="32"/>
+    </row>
+    <row r="205">
+      <c r="C205" s="32"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="32"/>
+    </row>
+    <row r="207">
+      <c r="C207" s="32"/>
+    </row>
+    <row r="208">
+      <c r="C208" s="32"/>
+    </row>
+    <row r="209">
+      <c r="C209" s="32"/>
+    </row>
+    <row r="210">
+      <c r="C210" s="32"/>
+    </row>
+    <row r="211">
+      <c r="C211" s="32"/>
+    </row>
+    <row r="212">
+      <c r="C212" s="32"/>
+    </row>
+    <row r="213">
+      <c r="C213" s="32"/>
+    </row>
+    <row r="214">
+      <c r="C214" s="32"/>
+    </row>
+    <row r="215">
+      <c r="C215" s="32"/>
+    </row>
+    <row r="216">
+      <c r="C216" s="32"/>
+    </row>
+    <row r="217">
+      <c r="C217" s="32"/>
+    </row>
+    <row r="218">
+      <c r="C218" s="32"/>
+    </row>
+    <row r="219">
+      <c r="C219" s="32"/>
+    </row>
+    <row r="220">
+      <c r="C220" s="32"/>
+    </row>
+    <row r="221">
+      <c r="C221" s="32"/>
+    </row>
+    <row r="222">
+      <c r="C222" s="32"/>
+    </row>
+    <row r="223">
+      <c r="C223" s="32"/>
+    </row>
+    <row r="224">
+      <c r="C224" s="32"/>
+    </row>
+    <row r="225">
+      <c r="C225" s="32"/>
+    </row>
+    <row r="226">
+      <c r="C226" s="32"/>
+    </row>
+    <row r="227">
+      <c r="C227" s="32"/>
+    </row>
+    <row r="228">
+      <c r="C228" s="32"/>
+    </row>
+    <row r="229">
+      <c r="C229" s="32"/>
+    </row>
+    <row r="230">
+      <c r="C230" s="32"/>
+    </row>
+    <row r="231">
+      <c r="C231" s="32"/>
+    </row>
+    <row r="232">
+      <c r="C232" s="32"/>
+    </row>
+    <row r="233">
+      <c r="C233" s="32"/>
+    </row>
+    <row r="234">
+      <c r="C234" s="32"/>
+    </row>
+    <row r="235">
+      <c r="C235" s="32"/>
+    </row>
+    <row r="236">
+      <c r="C236" s="32"/>
+    </row>
+    <row r="237">
+      <c r="C237" s="32"/>
+    </row>
+    <row r="238">
+      <c r="C238" s="32"/>
+    </row>
+    <row r="239">
+      <c r="C239" s="32"/>
+    </row>
+    <row r="240">
+      <c r="C240" s="32"/>
+    </row>
+    <row r="241">
+      <c r="C241" s="32"/>
+    </row>
+    <row r="242">
+      <c r="C242" s="32"/>
+    </row>
+    <row r="243">
+      <c r="C243" s="32"/>
+    </row>
+    <row r="244">
+      <c r="C244" s="32"/>
+    </row>
+    <row r="245">
+      <c r="C245" s="32"/>
+    </row>
+    <row r="246">
+      <c r="C246" s="32"/>
+    </row>
+    <row r="247">
+      <c r="C247" s="32"/>
+    </row>
+    <row r="248">
+      <c r="C248" s="32"/>
+    </row>
+    <row r="249">
+      <c r="C249" s="32"/>
+    </row>
+    <row r="250">
+      <c r="C250" s="32"/>
+    </row>
+    <row r="251">
+      <c r="C251" s="32"/>
+    </row>
+    <row r="252">
+      <c r="C252" s="32"/>
+    </row>
+    <row r="253">
+      <c r="C253" s="32"/>
+    </row>
+    <row r="254">
+      <c r="C254" s="32"/>
+    </row>
+    <row r="255">
+      <c r="C255" s="32"/>
+    </row>
+    <row r="256">
+      <c r="C256" s="32"/>
+    </row>
+    <row r="257">
+      <c r="C257" s="32"/>
+    </row>
+    <row r="258">
+      <c r="C258" s="32"/>
+    </row>
+    <row r="259">
+      <c r="C259" s="32"/>
+    </row>
+    <row r="260">
+      <c r="C260" s="32"/>
+    </row>
+    <row r="261">
+      <c r="C261" s="32"/>
+    </row>
+    <row r="262">
+      <c r="C262" s="32"/>
+    </row>
+    <row r="263">
+      <c r="C263" s="32"/>
+    </row>
+    <row r="264">
+      <c r="C264" s="32"/>
+    </row>
+    <row r="265">
+      <c r="C265" s="32"/>
+    </row>
+    <row r="266">
+      <c r="C266" s="32"/>
+    </row>
+    <row r="267">
+      <c r="C267" s="32"/>
+    </row>
+    <row r="268">
+      <c r="C268" s="32"/>
+    </row>
+    <row r="269">
+      <c r="C269" s="32"/>
+    </row>
+    <row r="270">
+      <c r="C270" s="32"/>
+    </row>
+    <row r="271">
+      <c r="C271" s="32"/>
+    </row>
+    <row r="272">
+      <c r="C272" s="32"/>
+    </row>
+    <row r="273">
+      <c r="C273" s="32"/>
+    </row>
+    <row r="274">
+      <c r="C274" s="32"/>
+    </row>
+    <row r="275">
+      <c r="C275" s="32"/>
+    </row>
+    <row r="276">
+      <c r="C276" s="32"/>
+    </row>
+    <row r="277">
+      <c r="C277" s="32"/>
+    </row>
+    <row r="278">
+      <c r="C278" s="32"/>
+    </row>
+    <row r="279">
+      <c r="C279" s="32"/>
+    </row>
+    <row r="280">
+      <c r="C280" s="32"/>
+    </row>
+    <row r="281">
+      <c r="C281" s="32"/>
+    </row>
+    <row r="282">
+      <c r="C282" s="32"/>
+    </row>
+    <row r="283">
+      <c r="C283" s="32"/>
+    </row>
+    <row r="284">
+      <c r="C284" s="32"/>
+    </row>
+    <row r="285">
+      <c r="C285" s="32"/>
+    </row>
+    <row r="286">
+      <c r="C286" s="32"/>
+    </row>
+    <row r="287">
+      <c r="C287" s="32"/>
+    </row>
+    <row r="288">
+      <c r="C288" s="32"/>
+    </row>
+    <row r="289">
+      <c r="C289" s="32"/>
+    </row>
+    <row r="290">
+      <c r="C290" s="32"/>
+    </row>
+    <row r="291">
+      <c r="C291" s="32"/>
+    </row>
+    <row r="292">
+      <c r="C292" s="32"/>
+    </row>
+    <row r="293">
+      <c r="C293" s="32"/>
+    </row>
+    <row r="294">
+      <c r="C294" s="32"/>
+    </row>
+    <row r="295">
+      <c r="C295" s="32"/>
+    </row>
+    <row r="296">
+      <c r="C296" s="32"/>
+    </row>
+    <row r="297">
+      <c r="C297" s="32"/>
+    </row>
+    <row r="298">
+      <c r="C298" s="32"/>
+    </row>
+    <row r="299">
+      <c r="C299" s="32"/>
+    </row>
+    <row r="300">
+      <c r="C300" s="32"/>
+    </row>
+    <row r="301">
+      <c r="C301" s="32"/>
+    </row>
+    <row r="302">
+      <c r="C302" s="32"/>
+    </row>
+    <row r="303">
+      <c r="C303" s="32"/>
+    </row>
+    <row r="304">
+      <c r="C304" s="32"/>
+    </row>
+    <row r="305">
+      <c r="C305" s="32"/>
+    </row>
+    <row r="306">
+      <c r="C306" s="32"/>
+    </row>
+    <row r="307">
+      <c r="C307" s="32"/>
+    </row>
+    <row r="308">
+      <c r="C308" s="32"/>
+    </row>
+    <row r="309">
+      <c r="C309" s="32"/>
+    </row>
+    <row r="310">
+      <c r="C310" s="32"/>
+    </row>
+    <row r="311">
+      <c r="C311" s="32"/>
+    </row>
+    <row r="312">
+      <c r="C312" s="32"/>
+    </row>
+    <row r="313">
+      <c r="C313" s="32"/>
+    </row>
+    <row r="314">
+      <c r="C314" s="32"/>
+    </row>
+    <row r="315">
+      <c r="C315" s="32"/>
+    </row>
+    <row r="316">
+      <c r="C316" s="32"/>
+    </row>
+    <row r="317">
+      <c r="C317" s="32"/>
+    </row>
+    <row r="318">
+      <c r="C318" s="32"/>
+    </row>
+    <row r="319">
+      <c r="C319" s="32"/>
+    </row>
+    <row r="320">
+      <c r="C320" s="32"/>
+    </row>
+    <row r="321">
+      <c r="C321" s="32"/>
+    </row>
+    <row r="322">
+      <c r="C322" s="32"/>
+    </row>
+    <row r="323">
+      <c r="C323" s="32"/>
+    </row>
+    <row r="324">
+      <c r="C324" s="32"/>
+    </row>
+    <row r="325">
+      <c r="C325" s="32"/>
+    </row>
+    <row r="326">
+      <c r="C326" s="32"/>
+    </row>
+    <row r="327">
+      <c r="C327" s="32"/>
+    </row>
+    <row r="328">
+      <c r="C328" s="32"/>
+    </row>
+    <row r="329">
+      <c r="C329" s="32"/>
+    </row>
+    <row r="330">
+      <c r="C330" s="32"/>
+    </row>
+    <row r="331">
+      <c r="C331" s="32"/>
+    </row>
+    <row r="332">
+      <c r="C332" s="32"/>
+    </row>
+    <row r="333">
+      <c r="C333" s="32"/>
+    </row>
+    <row r="334">
+      <c r="C334" s="32"/>
+    </row>
+    <row r="335">
+      <c r="C335" s="32"/>
+    </row>
+    <row r="336">
+      <c r="C336" s="32"/>
+    </row>
+    <row r="337">
+      <c r="C337" s="32"/>
+    </row>
+    <row r="338">
+      <c r="C338" s="32"/>
+    </row>
+    <row r="339">
+      <c r="C339" s="32"/>
+    </row>
+    <row r="340">
+      <c r="C340" s="32"/>
+    </row>
+    <row r="341">
+      <c r="C341" s="32"/>
+    </row>
+    <row r="342">
+      <c r="C342" s="32"/>
+    </row>
+    <row r="343">
+      <c r="C343" s="32"/>
+    </row>
+    <row r="344">
+      <c r="C344" s="32"/>
+    </row>
+    <row r="345">
+      <c r="C345" s="32"/>
+    </row>
+    <row r="346">
+      <c r="C346" s="32"/>
+    </row>
+    <row r="347">
+      <c r="C347" s="32"/>
+    </row>
+    <row r="348">
+      <c r="C348" s="32"/>
+    </row>
+    <row r="349">
+      <c r="C349" s="32"/>
+    </row>
+    <row r="350">
+      <c r="C350" s="32"/>
+    </row>
+    <row r="351">
+      <c r="C351" s="32"/>
+    </row>
+    <row r="352">
+      <c r="C352" s="32"/>
+    </row>
+    <row r="353">
+      <c r="C353" s="32"/>
+    </row>
+    <row r="354">
+      <c r="C354" s="32"/>
+    </row>
+    <row r="355">
+      <c r="C355" s="32"/>
+    </row>
+    <row r="356">
+      <c r="C356" s="32"/>
+    </row>
+    <row r="357">
+      <c r="C357" s="32"/>
+    </row>
+    <row r="358">
+      <c r="C358" s="32"/>
+    </row>
+    <row r="359">
+      <c r="C359" s="32"/>
+    </row>
+    <row r="360">
+      <c r="C360" s="32"/>
+    </row>
+    <row r="361">
+      <c r="C361" s="32"/>
+    </row>
+    <row r="362">
+      <c r="C362" s="32"/>
+    </row>
+    <row r="363">
+      <c r="C363" s="32"/>
+    </row>
+    <row r="364">
+      <c r="C364" s="32"/>
+    </row>
+    <row r="365">
+      <c r="C365" s="32"/>
+    </row>
+    <row r="366">
+      <c r="C366" s="32"/>
+    </row>
+    <row r="367">
+      <c r="C367" s="32"/>
+    </row>
+    <row r="368">
+      <c r="C368" s="32"/>
+    </row>
+    <row r="369">
+      <c r="C369" s="32"/>
+    </row>
+    <row r="370">
+      <c r="C370" s="32"/>
+    </row>
+    <row r="371">
+      <c r="C371" s="32"/>
+    </row>
+    <row r="372">
+      <c r="C372" s="32"/>
+    </row>
+    <row r="373">
+      <c r="C373" s="32"/>
+    </row>
+    <row r="374">
+      <c r="C374" s="32"/>
+    </row>
+    <row r="375">
+      <c r="C375" s="32"/>
+    </row>
+    <row r="376">
+      <c r="C376" s="32"/>
+    </row>
+    <row r="377">
+      <c r="C377" s="32"/>
+    </row>
+    <row r="378">
+      <c r="C378" s="32"/>
+    </row>
+    <row r="379">
+      <c r="C379" s="32"/>
+    </row>
+    <row r="380">
+      <c r="C380" s="32"/>
+    </row>
+    <row r="381">
+      <c r="C381" s="32"/>
+    </row>
+    <row r="382">
+      <c r="C382" s="32"/>
+    </row>
+    <row r="383">
+      <c r="C383" s="32"/>
+    </row>
+    <row r="384">
+      <c r="C384" s="32"/>
+    </row>
+    <row r="385">
+      <c r="C385" s="32"/>
+    </row>
+    <row r="386">
+      <c r="C386" s="32"/>
+    </row>
+    <row r="387">
+      <c r="C387" s="32"/>
+    </row>
+    <row r="388">
+      <c r="C388" s="32"/>
+    </row>
+    <row r="389">
+      <c r="C389" s="32"/>
+    </row>
+    <row r="390">
+      <c r="C390" s="32"/>
+    </row>
+    <row r="391">
+      <c r="C391" s="32"/>
+    </row>
+    <row r="392">
+      <c r="C392" s="32"/>
+    </row>
+    <row r="393">
+      <c r="C393" s="32"/>
+    </row>
+    <row r="394">
+      <c r="C394" s="32"/>
+    </row>
+    <row r="395">
+      <c r="C395" s="32"/>
+    </row>
+    <row r="396">
+      <c r="C396" s="32"/>
+    </row>
+    <row r="397">
+      <c r="C397" s="32"/>
+    </row>
+    <row r="398">
+      <c r="C398" s="32"/>
+    </row>
+    <row r="399">
+      <c r="C399" s="32"/>
+    </row>
+    <row r="400">
+      <c r="C400" s="32"/>
+    </row>
+    <row r="401">
+      <c r="C401" s="32"/>
+    </row>
+    <row r="402">
+      <c r="C402" s="32"/>
+    </row>
+    <row r="403">
+      <c r="C403" s="32"/>
+    </row>
+    <row r="404">
+      <c r="C404" s="32"/>
+    </row>
+    <row r="405">
+      <c r="C405" s="32"/>
+    </row>
+    <row r="406">
+      <c r="C406" s="32"/>
+    </row>
+    <row r="407">
+      <c r="C407" s="32"/>
+    </row>
+    <row r="408">
+      <c r="C408" s="32"/>
+    </row>
+    <row r="409">
+      <c r="C409" s="32"/>
+    </row>
+    <row r="410">
+      <c r="C410" s="32"/>
+    </row>
+    <row r="411">
+      <c r="C411" s="32"/>
+    </row>
+    <row r="412">
+      <c r="C412" s="32"/>
+    </row>
+    <row r="413">
+      <c r="C413" s="32"/>
+    </row>
+    <row r="414">
+      <c r="C414" s="32"/>
+    </row>
+    <row r="415">
+      <c r="C415" s="32"/>
+    </row>
+    <row r="416">
+      <c r="C416" s="32"/>
+    </row>
+    <row r="417">
+      <c r="C417" s="32"/>
+    </row>
+    <row r="418">
+      <c r="C418" s="32"/>
+    </row>
+    <row r="419">
+      <c r="C419" s="32"/>
+    </row>
+    <row r="420">
+      <c r="C420" s="32"/>
+    </row>
+    <row r="421">
+      <c r="C421" s="32"/>
+    </row>
+    <row r="422">
+      <c r="C422" s="32"/>
+    </row>
+    <row r="423">
+      <c r="C423" s="32"/>
+    </row>
+    <row r="424">
+      <c r="C424" s="32"/>
+    </row>
+    <row r="425">
+      <c r="C425" s="32"/>
+    </row>
+    <row r="426">
+      <c r="C426" s="32"/>
+    </row>
+    <row r="427">
+      <c r="C427" s="32"/>
+    </row>
+    <row r="428">
+      <c r="C428" s="32"/>
+    </row>
+    <row r="429">
+      <c r="C429" s="32"/>
+    </row>
+    <row r="430">
+      <c r="C430" s="32"/>
+    </row>
+    <row r="431">
+      <c r="C431" s="32"/>
+    </row>
+    <row r="432">
+      <c r="C432" s="32"/>
+    </row>
+    <row r="433">
+      <c r="C433" s="32"/>
+    </row>
+    <row r="434">
+      <c r="C434" s="32"/>
+    </row>
+    <row r="435">
+      <c r="C435" s="32"/>
+    </row>
+    <row r="436">
+      <c r="C436" s="32"/>
+    </row>
+    <row r="437">
+      <c r="C437" s="32"/>
+    </row>
+    <row r="438">
+      <c r="C438" s="32"/>
+    </row>
+    <row r="439">
+      <c r="C439" s="32"/>
+    </row>
+    <row r="440">
+      <c r="C440" s="32"/>
+    </row>
+    <row r="441">
+      <c r="C441" s="32"/>
+    </row>
+    <row r="442">
+      <c r="C442" s="32"/>
+    </row>
+    <row r="443">
+      <c r="C443" s="32"/>
+    </row>
+    <row r="444">
+      <c r="C444" s="32"/>
+    </row>
+    <row r="445">
+      <c r="C445" s="32"/>
+    </row>
+    <row r="446">
+      <c r="C446" s="32"/>
+    </row>
+    <row r="447">
+      <c r="C447" s="32"/>
+    </row>
+    <row r="448">
+      <c r="C448" s="32"/>
+    </row>
+    <row r="449">
+      <c r="C449" s="32"/>
+    </row>
+    <row r="450">
+      <c r="C450" s="32"/>
+    </row>
+    <row r="451">
+      <c r="C451" s="32"/>
+    </row>
+    <row r="452">
+      <c r="C452" s="32"/>
+    </row>
+    <row r="453">
+      <c r="C453" s="32"/>
+    </row>
+    <row r="454">
+      <c r="C454" s="32"/>
+    </row>
+    <row r="455">
+      <c r="C455" s="32"/>
+    </row>
+    <row r="456">
+      <c r="C456" s="32"/>
+    </row>
+    <row r="457">
+      <c r="C457" s="32"/>
+    </row>
+    <row r="458">
+      <c r="C458" s="32"/>
+    </row>
+    <row r="459">
+      <c r="C459" s="32"/>
+    </row>
+    <row r="460">
+      <c r="C460" s="32"/>
+    </row>
+    <row r="461">
+      <c r="C461" s="32"/>
+    </row>
+    <row r="462">
+      <c r="C462" s="32"/>
+    </row>
+    <row r="463">
+      <c r="C463" s="32"/>
+    </row>
+    <row r="464">
+      <c r="C464" s="32"/>
+    </row>
+    <row r="465">
+      <c r="C465" s="32"/>
+    </row>
+    <row r="466">
+      <c r="C466" s="32"/>
+    </row>
+    <row r="467">
+      <c r="C467" s="32"/>
+    </row>
+    <row r="468">
+      <c r="C468" s="32"/>
+    </row>
+    <row r="469">
+      <c r="C469" s="32"/>
+    </row>
+    <row r="470">
+      <c r="C470" s="32"/>
+    </row>
+    <row r="471">
+      <c r="C471" s="32"/>
+    </row>
+    <row r="472">
+      <c r="C472" s="32"/>
+    </row>
+    <row r="473">
+      <c r="C473" s="32"/>
+    </row>
+    <row r="474">
+      <c r="C474" s="32"/>
+    </row>
+    <row r="475">
+      <c r="C475" s="32"/>
+    </row>
+    <row r="476">
+      <c r="C476" s="32"/>
+    </row>
+    <row r="477">
+      <c r="C477" s="32"/>
+    </row>
+    <row r="478">
+      <c r="C478" s="32"/>
+    </row>
+    <row r="479">
+      <c r="C479" s="32"/>
+    </row>
+    <row r="480">
+      <c r="C480" s="32"/>
+    </row>
+    <row r="481">
+      <c r="C481" s="32"/>
+    </row>
+    <row r="482">
+      <c r="C482" s="32"/>
+    </row>
+    <row r="483">
+      <c r="C483" s="32"/>
+    </row>
+    <row r="484">
+      <c r="C484" s="32"/>
+    </row>
+    <row r="485">
+      <c r="C485" s="32"/>
+    </row>
+    <row r="486">
+      <c r="C486" s="32"/>
+    </row>
+    <row r="487">
+      <c r="C487" s="32"/>
+    </row>
+    <row r="488">
+      <c r="C488" s="32"/>
+    </row>
+    <row r="489">
+      <c r="C489" s="32"/>
+    </row>
+    <row r="490">
+      <c r="C490" s="32"/>
+    </row>
+    <row r="491">
+      <c r="C491" s="32"/>
+    </row>
+    <row r="492">
+      <c r="C492" s="32"/>
+    </row>
+    <row r="493">
+      <c r="C493" s="32"/>
+    </row>
+    <row r="494">
+      <c r="C494" s="32"/>
+    </row>
+    <row r="495">
+      <c r="C495" s="32"/>
+    </row>
+    <row r="496">
+      <c r="C496" s="32"/>
+    </row>
+    <row r="497">
+      <c r="C497" s="32"/>
+    </row>
+    <row r="498">
+      <c r="C498" s="32"/>
+    </row>
+    <row r="499">
+      <c r="C499" s="32"/>
+    </row>
+    <row r="500">
+      <c r="C500" s="32"/>
+    </row>
+    <row r="501">
+      <c r="C501" s="32"/>
+    </row>
+    <row r="502">
+      <c r="C502" s="32"/>
+    </row>
+    <row r="503">
+      <c r="C503" s="32"/>
+    </row>
+    <row r="504">
+      <c r="C504" s="32"/>
+    </row>
+    <row r="505">
+      <c r="C505" s="32"/>
+    </row>
+    <row r="506">
+      <c r="C506" s="32"/>
+    </row>
+    <row r="507">
+      <c r="C507" s="32"/>
+    </row>
+    <row r="508">
+      <c r="C508" s="32"/>
+    </row>
+    <row r="509">
+      <c r="C509" s="32"/>
+    </row>
+    <row r="510">
+      <c r="C510" s="32"/>
+    </row>
+    <row r="511">
+      <c r="C511" s="32"/>
+    </row>
+    <row r="512">
+      <c r="C512" s="32"/>
+    </row>
+    <row r="513">
+      <c r="C513" s="32"/>
+    </row>
+    <row r="514">
+      <c r="C514" s="32"/>
+    </row>
+    <row r="515">
+      <c r="C515" s="32"/>
+    </row>
+    <row r="516">
+      <c r="C516" s="32"/>
+    </row>
+    <row r="517">
+      <c r="C517" s="32"/>
+    </row>
+    <row r="518">
+      <c r="C518" s="32"/>
+    </row>
+    <row r="519">
+      <c r="C519" s="32"/>
+    </row>
+    <row r="520">
+      <c r="C520" s="32"/>
+    </row>
+    <row r="521">
+      <c r="C521" s="32"/>
+    </row>
+    <row r="522">
+      <c r="C522" s="32"/>
+    </row>
+    <row r="523">
+      <c r="C523" s="32"/>
+    </row>
+    <row r="524">
+      <c r="C524" s="32"/>
+    </row>
+    <row r="525">
+      <c r="C525" s="32"/>
+    </row>
+    <row r="526">
+      <c r="C526" s="32"/>
+    </row>
+    <row r="527">
+      <c r="C527" s="32"/>
+    </row>
+    <row r="528">
+      <c r="C528" s="32"/>
+    </row>
+    <row r="529">
+      <c r="C529" s="32"/>
+    </row>
+    <row r="530">
+      <c r="C530" s="32"/>
+    </row>
+    <row r="531">
+      <c r="C531" s="32"/>
+    </row>
+    <row r="532">
+      <c r="C532" s="32"/>
+    </row>
+    <row r="533">
+      <c r="C533" s="32"/>
+    </row>
+    <row r="534">
+      <c r="C534" s="32"/>
+    </row>
+    <row r="535">
+      <c r="C535" s="32"/>
+    </row>
+    <row r="536">
+      <c r="C536" s="32"/>
+    </row>
+    <row r="537">
+      <c r="C537" s="32"/>
+    </row>
+    <row r="538">
+      <c r="C538" s="32"/>
+    </row>
+    <row r="539">
+      <c r="C539" s="32"/>
+    </row>
+    <row r="540">
+      <c r="C540" s="32"/>
+    </row>
+    <row r="541">
+      <c r="C541" s="32"/>
+    </row>
+    <row r="542">
+      <c r="C542" s="32"/>
+    </row>
+    <row r="543">
+      <c r="C543" s="32"/>
+    </row>
+    <row r="544">
+      <c r="C544" s="32"/>
+    </row>
+    <row r="545">
+      <c r="C545" s="32"/>
+    </row>
+    <row r="546">
+      <c r="C546" s="32"/>
+    </row>
+    <row r="547">
+      <c r="C547" s="32"/>
+    </row>
+    <row r="548">
+      <c r="C548" s="32"/>
+    </row>
+    <row r="549">
+      <c r="C549" s="32"/>
+    </row>
+    <row r="550">
+      <c r="C550" s="32"/>
+    </row>
+    <row r="551">
+      <c r="C551" s="32"/>
+    </row>
+    <row r="552">
+      <c r="C552" s="32"/>
+    </row>
+    <row r="553">
+      <c r="C553" s="32"/>
+    </row>
+    <row r="554">
+      <c r="C554" s="32"/>
+    </row>
+    <row r="555">
+      <c r="C555" s="32"/>
+    </row>
+    <row r="556">
+      <c r="C556" s="32"/>
+    </row>
+    <row r="557">
+      <c r="C557" s="32"/>
+    </row>
+    <row r="558">
+      <c r="C558" s="32"/>
+    </row>
+    <row r="559">
+      <c r="C559" s="32"/>
+    </row>
+    <row r="560">
+      <c r="C560" s="32"/>
+    </row>
+    <row r="561">
+      <c r="C561" s="32"/>
+    </row>
+    <row r="562">
+      <c r="C562" s="32"/>
+    </row>
+    <row r="563">
+      <c r="C563" s="32"/>
+    </row>
+    <row r="564">
+      <c r="C564" s="32"/>
+    </row>
+    <row r="565">
+      <c r="C565" s="32"/>
+    </row>
+    <row r="566">
+      <c r="C566" s="32"/>
+    </row>
+    <row r="567">
+      <c r="C567" s="32"/>
+    </row>
+    <row r="568">
+      <c r="C568" s="32"/>
+    </row>
+    <row r="569">
+      <c r="C569" s="32"/>
+    </row>
+    <row r="570">
+      <c r="C570" s="32"/>
+    </row>
+    <row r="571">
+      <c r="C571" s="32"/>
+    </row>
+    <row r="572">
+      <c r="C572" s="32"/>
+    </row>
+    <row r="573">
+      <c r="C573" s="32"/>
+    </row>
+    <row r="574">
+      <c r="C574" s="32"/>
+    </row>
+    <row r="575">
+      <c r="C575" s="32"/>
+    </row>
+    <row r="576">
+      <c r="C576" s="32"/>
+    </row>
+    <row r="577">
+      <c r="C577" s="32"/>
+    </row>
+    <row r="578">
+      <c r="C578" s="32"/>
+    </row>
+    <row r="579">
+      <c r="C579" s="32"/>
+    </row>
+    <row r="580">
+      <c r="C580" s="32"/>
+    </row>
+    <row r="581">
+      <c r="C581" s="32"/>
+    </row>
+    <row r="582">
+      <c r="C582" s="32"/>
+    </row>
+    <row r="583">
+      <c r="C583" s="32"/>
+    </row>
+    <row r="584">
+      <c r="C584" s="32"/>
+    </row>
+    <row r="585">
+      <c r="C585" s="32"/>
+    </row>
+    <row r="586">
+      <c r="C586" s="32"/>
+    </row>
+    <row r="587">
+      <c r="C587" s="32"/>
+    </row>
+    <row r="588">
+      <c r="C588" s="32"/>
+    </row>
+    <row r="589">
+      <c r="C589" s="32"/>
+    </row>
+    <row r="590">
+      <c r="C590" s="32"/>
+    </row>
+    <row r="591">
+      <c r="C591" s="32"/>
+    </row>
+    <row r="592">
+      <c r="C592" s="32"/>
+    </row>
+    <row r="593">
+      <c r="C593" s="32"/>
+    </row>
+    <row r="594">
+      <c r="C594" s="32"/>
+    </row>
+    <row r="595">
+      <c r="C595" s="32"/>
+    </row>
+    <row r="596">
+      <c r="C596" s="32"/>
+    </row>
+    <row r="597">
+      <c r="C597" s="32"/>
+    </row>
+    <row r="598">
+      <c r="C598" s="32"/>
+    </row>
+    <row r="599">
+      <c r="C599" s="32"/>
+    </row>
+    <row r="600">
+      <c r="C600" s="32"/>
+    </row>
+    <row r="601">
+      <c r="C601" s="32"/>
+    </row>
+    <row r="602">
+      <c r="C602" s="32"/>
+    </row>
+    <row r="603">
+      <c r="C603" s="32"/>
+    </row>
+    <row r="604">
+      <c r="C604" s="32"/>
+    </row>
+    <row r="605">
+      <c r="C605" s="32"/>
+    </row>
+    <row r="606">
+      <c r="C606" s="32"/>
+    </row>
+    <row r="607">
+      <c r="C607" s="32"/>
+    </row>
+    <row r="608">
+      <c r="C608" s="32"/>
+    </row>
+    <row r="609">
+      <c r="C609" s="32"/>
+    </row>
+    <row r="610">
+      <c r="C610" s="32"/>
+    </row>
+    <row r="611">
+      <c r="C611" s="32"/>
+    </row>
+    <row r="612">
+      <c r="C612" s="32"/>
+    </row>
+    <row r="613">
+      <c r="C613" s="32"/>
+    </row>
+    <row r="614">
+      <c r="C614" s="32"/>
+    </row>
+    <row r="615">
+      <c r="C615" s="32"/>
+    </row>
+    <row r="616">
+      <c r="C616" s="32"/>
+    </row>
+    <row r="617">
+      <c r="C617" s="32"/>
+    </row>
+    <row r="618">
+      <c r="C618" s="32"/>
+    </row>
+    <row r="619">
+      <c r="C619" s="32"/>
+    </row>
+    <row r="620">
+      <c r="C620" s="32"/>
+    </row>
+    <row r="621">
+      <c r="C621" s="32"/>
+    </row>
+    <row r="622">
+      <c r="C622" s="32"/>
+    </row>
+    <row r="623">
+      <c r="C623" s="32"/>
+    </row>
+    <row r="624">
+      <c r="C624" s="32"/>
+    </row>
+    <row r="625">
+      <c r="C625" s="32"/>
+    </row>
+    <row r="626">
+      <c r="C626" s="32"/>
+    </row>
+    <row r="627">
+      <c r="C627" s="32"/>
+    </row>
+    <row r="628">
+      <c r="C628" s="32"/>
+    </row>
+    <row r="629">
+      <c r="C629" s="32"/>
+    </row>
+    <row r="630">
+      <c r="C630" s="32"/>
+    </row>
+    <row r="631">
+      <c r="C631" s="32"/>
+    </row>
+    <row r="632">
+      <c r="C632" s="32"/>
+    </row>
+    <row r="633">
+      <c r="C633" s="32"/>
+    </row>
+    <row r="634">
+      <c r="C634" s="32"/>
+    </row>
+    <row r="635">
+      <c r="C635" s="32"/>
+    </row>
+    <row r="636">
+      <c r="C636" s="32"/>
+    </row>
+    <row r="637">
+      <c r="C637" s="32"/>
+    </row>
+    <row r="638">
+      <c r="C638" s="32"/>
+    </row>
+    <row r="639">
+      <c r="C639" s="32"/>
+    </row>
+    <row r="640">
+      <c r="C640" s="32"/>
+    </row>
+    <row r="641">
+      <c r="C641" s="32"/>
+    </row>
+    <row r="642">
+      <c r="C642" s="32"/>
+    </row>
+    <row r="643">
+      <c r="C643" s="32"/>
+    </row>
+    <row r="644">
+      <c r="C644" s="32"/>
+    </row>
+    <row r="645">
+      <c r="C645" s="32"/>
+    </row>
+    <row r="646">
+      <c r="C646" s="32"/>
+    </row>
+    <row r="647">
+      <c r="C647" s="32"/>
+    </row>
+    <row r="648">
+      <c r="C648" s="32"/>
+    </row>
+    <row r="649">
+      <c r="C649" s="32"/>
+    </row>
+    <row r="650">
+      <c r="C650" s="32"/>
+    </row>
+    <row r="651">
+      <c r="C651" s="32"/>
+    </row>
+    <row r="652">
+      <c r="C652" s="32"/>
+    </row>
+    <row r="653">
+      <c r="C653" s="32"/>
+    </row>
+    <row r="654">
+      <c r="C654" s="32"/>
+    </row>
+    <row r="655">
+      <c r="C655" s="32"/>
+    </row>
+    <row r="656">
+      <c r="C656" s="32"/>
+    </row>
+    <row r="657">
+      <c r="C657" s="32"/>
+    </row>
+    <row r="658">
+      <c r="C658" s="32"/>
+    </row>
+    <row r="659">
+      <c r="C659" s="32"/>
+    </row>
+    <row r="660">
+      <c r="C660" s="32"/>
+    </row>
+    <row r="661">
+      <c r="C661" s="32"/>
+    </row>
+    <row r="662">
+      <c r="C662" s="32"/>
+    </row>
+    <row r="663">
+      <c r="C663" s="32"/>
+    </row>
+    <row r="664">
+      <c r="C664" s="32"/>
+    </row>
+    <row r="665">
+      <c r="C665" s="32"/>
+    </row>
+    <row r="666">
+      <c r="C666" s="32"/>
+    </row>
+    <row r="667">
+      <c r="C667" s="32"/>
+    </row>
+    <row r="668">
+      <c r="C668" s="32"/>
+    </row>
+    <row r="669">
+      <c r="C669" s="32"/>
+    </row>
+    <row r="670">
+      <c r="C670" s="32"/>
+    </row>
+    <row r="671">
+      <c r="C671" s="32"/>
+    </row>
+    <row r="672">
+      <c r="C672" s="32"/>
+    </row>
+    <row r="673">
+      <c r="C673" s="32"/>
+    </row>
+    <row r="674">
+      <c r="C674" s="32"/>
+    </row>
+    <row r="675">
+      <c r="C675" s="32"/>
+    </row>
+    <row r="676">
+      <c r="C676" s="32"/>
+    </row>
+    <row r="677">
+      <c r="C677" s="32"/>
+    </row>
+    <row r="678">
+      <c r="C678" s="32"/>
+    </row>
+    <row r="679">
+      <c r="C679" s="32"/>
+    </row>
+    <row r="680">
+      <c r="C680" s="32"/>
+    </row>
+    <row r="681">
+      <c r="C681" s="32"/>
+    </row>
+    <row r="682">
+      <c r="C682" s="32"/>
+    </row>
+    <row r="683">
+      <c r="C683" s="32"/>
+    </row>
+    <row r="684">
+      <c r="C684" s="32"/>
+    </row>
+    <row r="685">
+      <c r="C685" s="32"/>
+    </row>
+    <row r="686">
+      <c r="C686" s="32"/>
+    </row>
+    <row r="687">
+      <c r="C687" s="32"/>
+    </row>
+    <row r="688">
+      <c r="C688" s="32"/>
+    </row>
+    <row r="689">
+      <c r="C689" s="32"/>
+    </row>
+    <row r="690">
+      <c r="C690" s="32"/>
+    </row>
+    <row r="691">
+      <c r="C691" s="32"/>
+    </row>
+    <row r="692">
+      <c r="C692" s="32"/>
+    </row>
+    <row r="693">
+      <c r="C693" s="32"/>
+    </row>
+    <row r="694">
+      <c r="C694" s="32"/>
+    </row>
+    <row r="695">
+      <c r="C695" s="32"/>
+    </row>
+    <row r="696">
+      <c r="C696" s="32"/>
+    </row>
+    <row r="697">
+      <c r="C697" s="32"/>
+    </row>
+    <row r="698">
+      <c r="C698" s="32"/>
+    </row>
+    <row r="699">
+      <c r="C699" s="32"/>
+    </row>
+    <row r="700">
+      <c r="C700" s="32"/>
+    </row>
+    <row r="701">
+      <c r="C701" s="32"/>
+    </row>
+    <row r="702">
+      <c r="C702" s="32"/>
+    </row>
+    <row r="703">
+      <c r="C703" s="32"/>
+    </row>
+    <row r="704">
+      <c r="C704" s="32"/>
+    </row>
+    <row r="705">
+      <c r="C705" s="32"/>
+    </row>
+    <row r="706">
+      <c r="C706" s="32"/>
+    </row>
+    <row r="707">
+      <c r="C707" s="32"/>
+    </row>
+    <row r="708">
+      <c r="C708" s="32"/>
+    </row>
+    <row r="709">
+      <c r="C709" s="32"/>
+    </row>
+    <row r="710">
+      <c r="C710" s="32"/>
+    </row>
+    <row r="711">
+      <c r="C711" s="32"/>
+    </row>
+    <row r="712">
+      <c r="C712" s="32"/>
+    </row>
+    <row r="713">
+      <c r="C713" s="32"/>
+    </row>
+    <row r="714">
+      <c r="C714" s="32"/>
+    </row>
+    <row r="715">
+      <c r="C715" s="32"/>
+    </row>
+    <row r="716">
+      <c r="C716" s="32"/>
+    </row>
+    <row r="717">
+      <c r="C717" s="32"/>
+    </row>
+    <row r="718">
+      <c r="C718" s="32"/>
+    </row>
+    <row r="719">
+      <c r="C719" s="32"/>
+    </row>
+    <row r="720">
+      <c r="C720" s="32"/>
+    </row>
+    <row r="721">
+      <c r="C721" s="32"/>
+    </row>
+    <row r="722">
+      <c r="C722" s="32"/>
+    </row>
+    <row r="723">
+      <c r="C723" s="32"/>
+    </row>
+    <row r="724">
+      <c r="C724" s="32"/>
+    </row>
+    <row r="725">
+      <c r="C725" s="32"/>
+    </row>
+    <row r="726">
+      <c r="C726" s="32"/>
+    </row>
+    <row r="727">
+      <c r="C727" s="32"/>
+    </row>
+    <row r="728">
+      <c r="C728" s="32"/>
+    </row>
+    <row r="729">
+      <c r="C729" s="32"/>
+    </row>
+    <row r="730">
+      <c r="C730" s="32"/>
+    </row>
+    <row r="731">
+      <c r="C731" s="32"/>
+    </row>
+    <row r="732">
+      <c r="C732" s="32"/>
+    </row>
+    <row r="733">
+      <c r="C733" s="32"/>
+    </row>
+    <row r="734">
+      <c r="C734" s="32"/>
+    </row>
+    <row r="735">
+      <c r="C735" s="32"/>
+    </row>
+    <row r="736">
+      <c r="C736" s="32"/>
+    </row>
+    <row r="737">
+      <c r="C737" s="32"/>
+    </row>
+    <row r="738">
+      <c r="C738" s="32"/>
+    </row>
+    <row r="739">
+      <c r="C739" s="32"/>
+    </row>
+    <row r="740">
+      <c r="C740" s="32"/>
+    </row>
+    <row r="741">
+      <c r="C741" s="32"/>
+    </row>
+    <row r="742">
+      <c r="C742" s="32"/>
+    </row>
+    <row r="743">
+      <c r="C743" s="32"/>
+    </row>
+    <row r="744">
+      <c r="C744" s="32"/>
+    </row>
+    <row r="745">
+      <c r="C745" s="32"/>
+    </row>
+    <row r="746">
+      <c r="C746" s="32"/>
+    </row>
+    <row r="747">
+      <c r="C747" s="32"/>
+    </row>
+    <row r="748">
+      <c r="C748" s="32"/>
+    </row>
+    <row r="749">
+      <c r="C749" s="32"/>
+    </row>
+    <row r="750">
+      <c r="C750" s="32"/>
+    </row>
+    <row r="751">
+      <c r="C751" s="32"/>
+    </row>
+    <row r="752">
+      <c r="C752" s="32"/>
+    </row>
+    <row r="753">
+      <c r="C753" s="32"/>
+    </row>
+    <row r="754">
+      <c r="C754" s="32"/>
+    </row>
+    <row r="755">
+      <c r="C755" s="32"/>
+    </row>
+    <row r="756">
+      <c r="C756" s="32"/>
+    </row>
+    <row r="757">
+      <c r="C757" s="32"/>
+    </row>
+    <row r="758">
+      <c r="C758" s="32"/>
+    </row>
+    <row r="759">
+      <c r="C759" s="32"/>
+    </row>
+    <row r="760">
+      <c r="C760" s="32"/>
+    </row>
+    <row r="761">
+      <c r="C761" s="32"/>
+    </row>
+    <row r="762">
+      <c r="C762" s="32"/>
+    </row>
+    <row r="763">
+      <c r="C763" s="32"/>
+    </row>
+    <row r="764">
+      <c r="C764" s="32"/>
+    </row>
+    <row r="765">
+      <c r="C765" s="32"/>
+    </row>
+    <row r="766">
+      <c r="C766" s="32"/>
+    </row>
+    <row r="767">
+      <c r="C767" s="32"/>
+    </row>
+    <row r="768">
+      <c r="C768" s="32"/>
+    </row>
+    <row r="769">
+      <c r="C769" s="32"/>
+    </row>
+    <row r="770">
+      <c r="C770" s="32"/>
+    </row>
+    <row r="771">
+      <c r="C771" s="32"/>
+    </row>
+    <row r="772">
+      <c r="C772" s="32"/>
+    </row>
+    <row r="773">
+      <c r="C773" s="32"/>
+    </row>
+    <row r="774">
+      <c r="C774" s="32"/>
+    </row>
+    <row r="775">
+      <c r="C775" s="32"/>
+    </row>
+    <row r="776">
+      <c r="C776" s="32"/>
+    </row>
+    <row r="777">
+      <c r="C777" s="32"/>
+    </row>
+    <row r="778">
+      <c r="C778" s="32"/>
+    </row>
+    <row r="779">
+      <c r="C779" s="32"/>
+    </row>
+    <row r="780">
+      <c r="C780" s="32"/>
+    </row>
+    <row r="781">
+      <c r="C781" s="32"/>
+    </row>
+    <row r="782">
+      <c r="C782" s="32"/>
+    </row>
+    <row r="783">
+      <c r="C783" s="32"/>
+    </row>
+    <row r="784">
+      <c r="C784" s="32"/>
+    </row>
+    <row r="785">
+      <c r="C785" s="32"/>
+    </row>
+    <row r="786">
+      <c r="C786" s="32"/>
+    </row>
+    <row r="787">
+      <c r="C787" s="32"/>
+    </row>
+    <row r="788">
+      <c r="C788" s="32"/>
+    </row>
+    <row r="789">
+      <c r="C789" s="32"/>
+    </row>
+    <row r="790">
+      <c r="C790" s="32"/>
+    </row>
+    <row r="791">
+      <c r="C791" s="32"/>
+    </row>
+    <row r="792">
+      <c r="C792" s="32"/>
+    </row>
+    <row r="793">
+      <c r="C793" s="32"/>
+    </row>
+    <row r="794">
+      <c r="C794" s="32"/>
+    </row>
+    <row r="795">
+      <c r="C795" s="32"/>
+    </row>
+    <row r="796">
+      <c r="C796" s="32"/>
+    </row>
+    <row r="797">
+      <c r="C797" s="32"/>
+    </row>
+    <row r="798">
+      <c r="C798" s="32"/>
+    </row>
+    <row r="799">
+      <c r="C799" s="32"/>
+    </row>
+    <row r="800">
+      <c r="C800" s="32"/>
+    </row>
+    <row r="801">
+      <c r="C801" s="32"/>
+    </row>
+    <row r="802">
+      <c r="C802" s="32"/>
+    </row>
+    <row r="803">
+      <c r="C803" s="32"/>
+    </row>
+    <row r="804">
+      <c r="C804" s="32"/>
+    </row>
+    <row r="805">
+      <c r="C805" s="32"/>
+    </row>
+    <row r="806">
+      <c r="C806" s="32"/>
+    </row>
+    <row r="807">
+      <c r="C807" s="32"/>
+    </row>
+    <row r="808">
+      <c r="C808" s="32"/>
+    </row>
+    <row r="809">
+      <c r="C809" s="32"/>
+    </row>
+    <row r="810">
+      <c r="C810" s="32"/>
+    </row>
+    <row r="811">
+      <c r="C811" s="32"/>
+    </row>
+    <row r="812">
+      <c r="C812" s="32"/>
+    </row>
+    <row r="813">
+      <c r="C813" s="32"/>
+    </row>
+    <row r="814">
+      <c r="C814" s="32"/>
+    </row>
+    <row r="815">
+      <c r="C815" s="32"/>
+    </row>
+    <row r="816">
+      <c r="C816" s="32"/>
+    </row>
+    <row r="817">
+      <c r="C817" s="32"/>
+    </row>
+    <row r="818">
+      <c r="C818" s="32"/>
+    </row>
+    <row r="819">
+      <c r="C819" s="32"/>
+    </row>
+    <row r="820">
+      <c r="C820" s="32"/>
+    </row>
+    <row r="821">
+      <c r="C821" s="32"/>
+    </row>
+    <row r="822">
+      <c r="C822" s="32"/>
+    </row>
+    <row r="823">
+      <c r="C823" s="32"/>
+    </row>
+    <row r="824">
+      <c r="C824" s="32"/>
+    </row>
+    <row r="825">
+      <c r="C825" s="32"/>
+    </row>
+    <row r="826">
+      <c r="C826" s="32"/>
+    </row>
+    <row r="827">
+      <c r="C827" s="32"/>
+    </row>
+    <row r="828">
+      <c r="C828" s="32"/>
+    </row>
+    <row r="829">
+      <c r="C829" s="32"/>
+    </row>
+    <row r="830">
+      <c r="C830" s="32"/>
+    </row>
+    <row r="831">
+      <c r="C831" s="32"/>
+    </row>
+    <row r="832">
+      <c r="C832" s="32"/>
+    </row>
+    <row r="833">
+      <c r="C833" s="32"/>
+    </row>
+    <row r="834">
+      <c r="C834" s="32"/>
+    </row>
+    <row r="835">
+      <c r="C835" s="32"/>
+    </row>
+    <row r="836">
+      <c r="C836" s="32"/>
+    </row>
+    <row r="837">
+      <c r="C837" s="32"/>
+    </row>
+    <row r="838">
+      <c r="C838" s="32"/>
+    </row>
+    <row r="839">
+      <c r="C839" s="32"/>
+    </row>
+    <row r="840">
+      <c r="C840" s="32"/>
+    </row>
+    <row r="841">
+      <c r="C841" s="32"/>
+    </row>
+    <row r="842">
+      <c r="C842" s="32"/>
+    </row>
+    <row r="843">
+      <c r="C843" s="32"/>
+    </row>
+    <row r="844">
+      <c r="C844" s="32"/>
+    </row>
+    <row r="845">
+      <c r="C845" s="32"/>
+    </row>
+    <row r="846">
+      <c r="C846" s="32"/>
+    </row>
+    <row r="847">
+      <c r="C847" s="32"/>
+    </row>
+    <row r="848">
+      <c r="C848" s="32"/>
+    </row>
+    <row r="849">
+      <c r="C849" s="32"/>
+    </row>
+    <row r="850">
+      <c r="C850" s="32"/>
+    </row>
+    <row r="851">
+      <c r="C851" s="32"/>
+    </row>
+    <row r="852">
+      <c r="C852" s="32"/>
+    </row>
+    <row r="853">
+      <c r="C853" s="32"/>
+    </row>
+    <row r="854">
+      <c r="C854" s="32"/>
+    </row>
+    <row r="855">
+      <c r="C855" s="32"/>
+    </row>
+    <row r="856">
+      <c r="C856" s="32"/>
+    </row>
+    <row r="857">
+      <c r="C857" s="32"/>
+    </row>
+    <row r="858">
+      <c r="C858" s="32"/>
+    </row>
+    <row r="859">
+      <c r="C859" s="32"/>
+    </row>
+    <row r="860">
+      <c r="C860" s="32"/>
+    </row>
+    <row r="861">
+      <c r="C861" s="32"/>
+    </row>
+    <row r="862">
+      <c r="C862" s="32"/>
+    </row>
+    <row r="863">
+      <c r="C863" s="32"/>
+    </row>
+    <row r="864">
+      <c r="C864" s="32"/>
+    </row>
+    <row r="865">
+      <c r="C865" s="32"/>
+    </row>
+    <row r="866">
+      <c r="C866" s="32"/>
+    </row>
+    <row r="867">
+      <c r="C867" s="32"/>
+    </row>
+    <row r="868">
+      <c r="C868" s="32"/>
+    </row>
+    <row r="869">
+      <c r="C869" s="32"/>
+    </row>
+    <row r="870">
+      <c r="C870" s="32"/>
+    </row>
+    <row r="871">
+      <c r="C871" s="32"/>
+    </row>
+    <row r="872">
+      <c r="C872" s="32"/>
+    </row>
+    <row r="873">
+      <c r="C873" s="32"/>
+    </row>
+    <row r="874">
+      <c r="C874" s="32"/>
+    </row>
+    <row r="875">
+      <c r="C875" s="32"/>
+    </row>
+    <row r="876">
+      <c r="C876" s="32"/>
+    </row>
+    <row r="877">
+      <c r="C877" s="32"/>
+    </row>
+    <row r="878">
+      <c r="C878" s="32"/>
+    </row>
+    <row r="879">
+      <c r="C879" s="32"/>
+    </row>
+    <row r="880">
+      <c r="C880" s="32"/>
+    </row>
+    <row r="881">
+      <c r="C881" s="32"/>
+    </row>
+    <row r="882">
+      <c r="C882" s="32"/>
+    </row>
+    <row r="883">
+      <c r="C883" s="32"/>
+    </row>
+    <row r="884">
+      <c r="C884" s="32"/>
+    </row>
+    <row r="885">
+      <c r="C885" s="32"/>
+    </row>
+    <row r="886">
+      <c r="C886" s="32"/>
+    </row>
+    <row r="887">
+      <c r="C887" s="32"/>
+    </row>
+    <row r="888">
+      <c r="C888" s="32"/>
+    </row>
+    <row r="889">
+      <c r="C889" s="32"/>
+    </row>
+    <row r="890">
+      <c r="C890" s="32"/>
+    </row>
+    <row r="891">
+      <c r="C891" s="32"/>
+    </row>
+    <row r="892">
+      <c r="C892" s="32"/>
+    </row>
+    <row r="893">
+      <c r="C893" s="32"/>
+    </row>
+    <row r="894">
+      <c r="C894" s="32"/>
+    </row>
+    <row r="895">
+      <c r="C895" s="32"/>
+    </row>
+    <row r="896">
+      <c r="C896" s="32"/>
+    </row>
+    <row r="897">
+      <c r="C897" s="32"/>
+    </row>
+    <row r="898">
+      <c r="C898" s="32"/>
+    </row>
+    <row r="899">
+      <c r="C899" s="32"/>
+    </row>
+    <row r="900">
+      <c r="C900" s="32"/>
+    </row>
+    <row r="901">
+      <c r="C901" s="32"/>
+    </row>
+    <row r="902">
+      <c r="C902" s="32"/>
+    </row>
+    <row r="903">
+      <c r="C903" s="32"/>
+    </row>
+    <row r="904">
+      <c r="C904" s="32"/>
+    </row>
+    <row r="905">
+      <c r="C905" s="32"/>
+    </row>
+    <row r="906">
+      <c r="C906" s="32"/>
+    </row>
+    <row r="907">
+      <c r="C907" s="32"/>
+    </row>
+    <row r="908">
+      <c r="C908" s="32"/>
+    </row>
+    <row r="909">
+      <c r="C909" s="32"/>
+    </row>
+    <row r="910">
+      <c r="C910" s="32"/>
+    </row>
+    <row r="911">
+      <c r="C911" s="32"/>
+    </row>
+    <row r="912">
+      <c r="C912" s="32"/>
+    </row>
+    <row r="913">
+      <c r="C913" s="32"/>
+    </row>
+    <row r="914">
+      <c r="C914" s="32"/>
+    </row>
+    <row r="915">
+      <c r="C915" s="32"/>
+    </row>
+    <row r="916">
+      <c r="C916" s="32"/>
+    </row>
+    <row r="917">
+      <c r="C917" s="32"/>
+    </row>
+    <row r="918">
+      <c r="C918" s="32"/>
+    </row>
+    <row r="919">
+      <c r="C919" s="32"/>
+    </row>
+    <row r="920">
+      <c r="C920" s="32"/>
+    </row>
+    <row r="921">
+      <c r="C921" s="32"/>
+    </row>
+    <row r="922">
+      <c r="C922" s="32"/>
+    </row>
+    <row r="923">
+      <c r="C923" s="32"/>
+    </row>
+    <row r="924">
+      <c r="C924" s="32"/>
+    </row>
+    <row r="925">
+      <c r="C925" s="32"/>
+    </row>
+    <row r="926">
+      <c r="C926" s="32"/>
+    </row>
+    <row r="927">
+      <c r="C927" s="32"/>
+    </row>
+    <row r="928">
+      <c r="C928" s="32"/>
+    </row>
+    <row r="929">
+      <c r="C929" s="32"/>
+    </row>
+    <row r="930">
+      <c r="C930" s="32"/>
+    </row>
+    <row r="931">
+      <c r="C931" s="32"/>
+    </row>
+    <row r="932">
+      <c r="C932" s="32"/>
+    </row>
+    <row r="933">
+      <c r="C933" s="32"/>
+    </row>
+    <row r="934">
+      <c r="C934" s="32"/>
+    </row>
+    <row r="935">
+      <c r="C935" s="32"/>
+    </row>
+    <row r="936">
+      <c r="C936" s="32"/>
+    </row>
+    <row r="937">
+      <c r="C937" s="32"/>
+    </row>
+    <row r="938">
+      <c r="C938" s="32"/>
+    </row>
+    <row r="939">
+      <c r="C939" s="32"/>
+    </row>
+    <row r="940">
+      <c r="C940" s="32"/>
+    </row>
+    <row r="941">
+      <c r="C941" s="32"/>
+    </row>
+    <row r="942">
+      <c r="C942" s="32"/>
+    </row>
+    <row r="943">
+      <c r="C943" s="32"/>
+    </row>
+    <row r="944">
+      <c r="C944" s="32"/>
+    </row>
+    <row r="945">
+      <c r="C945" s="32"/>
+    </row>
+    <row r="946">
+      <c r="C946" s="32"/>
+    </row>
+    <row r="947">
+      <c r="C947" s="32"/>
+    </row>
+    <row r="948">
+      <c r="C948" s="32"/>
+    </row>
+    <row r="949">
+      <c r="C949" s="32"/>
+    </row>
+    <row r="950">
+      <c r="C950" s="32"/>
+    </row>
+    <row r="951">
+      <c r="C951" s="32"/>
+    </row>
+    <row r="952">
+      <c r="C952" s="32"/>
+    </row>
+    <row r="953">
+      <c r="C953" s="32"/>
+    </row>
+    <row r="954">
+      <c r="C954" s="32"/>
+    </row>
+    <row r="955">
+      <c r="C955" s="32"/>
+    </row>
+    <row r="956">
+      <c r="C956" s="32"/>
+    </row>
+    <row r="957">
+      <c r="C957" s="32"/>
+    </row>
+    <row r="958">
+      <c r="C958" s="32"/>
+    </row>
+    <row r="959">
+      <c r="C959" s="32"/>
+    </row>
+    <row r="960">
+      <c r="C960" s="32"/>
+    </row>
+    <row r="961">
+      <c r="C961" s="32"/>
+    </row>
+    <row r="962">
+      <c r="C962" s="32"/>
+    </row>
+    <row r="963">
+      <c r="C963" s="32"/>
+    </row>
+    <row r="964">
+      <c r="C964" s="32"/>
+    </row>
+    <row r="965">
+      <c r="C965" s="32"/>
+    </row>
+    <row r="966">
+      <c r="C966" s="32"/>
+    </row>
+    <row r="967">
+      <c r="C967" s="32"/>
+    </row>
+    <row r="968">
+      <c r="C968" s="32"/>
+    </row>
+    <row r="969">
+      <c r="C969" s="32"/>
+    </row>
+    <row r="970">
+      <c r="C970" s="32"/>
+    </row>
+    <row r="971">
+      <c r="C971" s="32"/>
+    </row>
+    <row r="972">
+      <c r="C972" s="32"/>
+    </row>
+    <row r="973">
+      <c r="C973" s="32"/>
+    </row>
+    <row r="974">
+      <c r="C974" s="32"/>
+    </row>
+    <row r="975">
+      <c r="C975" s="32"/>
+    </row>
+    <row r="976">
+      <c r="C976" s="32"/>
+    </row>
+    <row r="977">
+      <c r="C977" s="32"/>
+    </row>
+    <row r="978">
+      <c r="C978" s="32"/>
+    </row>
+    <row r="979">
+      <c r="C979" s="32"/>
+    </row>
+    <row r="980">
+      <c r="C980" s="32"/>
+    </row>
+    <row r="981">
+      <c r="C981" s="32"/>
+    </row>
+    <row r="982">
+      <c r="C982" s="32"/>
+    </row>
+    <row r="983">
+      <c r="C983" s="32"/>
+    </row>
+    <row r="984">
+      <c r="C984" s="32"/>
+    </row>
+    <row r="985">
+      <c r="C985" s="32"/>
+    </row>
+    <row r="986">
+      <c r="C986" s="32"/>
+    </row>
+    <row r="987">
+      <c r="C987" s="32"/>
+    </row>
+    <row r="988">
+      <c r="C988" s="32"/>
+    </row>
+    <row r="989">
+      <c r="C989" s="32"/>
+    </row>
+    <row r="990">
+      <c r="C990" s="32"/>
+    </row>
+    <row r="991">
+      <c r="C991" s="32"/>
+    </row>
+    <row r="992">
+      <c r="C992" s="32"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AB50">
+  <conditionalFormatting sqref="A2:AB27">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB50">
+  <conditionalFormatting sqref="A2:AB27">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB50">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$M2="changed"</formula>
+  <conditionalFormatting sqref="A2:AB27">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$M2="deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="O2"/>
-    <hyperlink r:id="rId2" ref="O3"/>
-    <hyperlink r:id="rId3" ref="O4"/>
-    <hyperlink r:id="rId4" ref="O5"/>
-    <hyperlink r:id="rId5" ref="O6"/>
-    <hyperlink r:id="rId6" ref="O7"/>
-    <hyperlink r:id="rId7" ref="O8"/>
-    <hyperlink r:id="rId8" ref="O9"/>
-    <hyperlink r:id="rId9" ref="O10"/>
-    <hyperlink r:id="rId10" ref="O11"/>
-    <hyperlink r:id="rId11" ref="O12"/>
-    <hyperlink r:id="rId12" ref="O13"/>
-    <hyperlink r:id="rId13" ref="O14"/>
-    <hyperlink r:id="rId14" ref="O15"/>
-  </hyperlinks>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9502,230 +13372,230 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
+      <c r="A2" s="45" t="s">
+        <v>420</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
     </row>
     <row r="3">
-      <c r="A3" s="46" t="s">
-        <v>383</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>384</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>385</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="E3" s="48" t="s">
+      <c r="A3" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>423</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="E3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51">
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54">
         <v>44856.0</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="52" t="s">
+      <c r="L3" s="52"/>
+      <c r="M3" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
     </row>
     <row r="4">
-      <c r="A4" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>388</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>385</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>389</v>
-      </c>
-      <c r="E4" s="48" t="s">
+      <c r="A4" s="51" t="s">
+        <v>425</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>423</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51">
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54">
         <v>44856.0</v>
       </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="52" t="s">
+      <c r="L4" s="52"/>
+      <c r="M4" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="53" t="s">
+      <c r="N4" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="50"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
     </row>
     <row r="5">
-      <c r="A5" s="48" t="s">
-        <v>390</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>391</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>392</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>389</v>
-      </c>
-      <c r="E5" s="48" t="s">
+      <c r="A5" s="51" t="s">
+        <v>428</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>430</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>427</v>
+      </c>
+      <c r="E5" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="51">
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54">
         <v>44856.0</v>
       </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="52" t="s">
+      <c r="L5" s="52"/>
+      <c r="M5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="N5" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="50"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="49"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
     </row>
     <row r="6">
-      <c r="A6" s="52" t="s">
-        <v>393</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>394</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>395</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>389</v>
-      </c>
-      <c r="E6" s="48" t="s">
+      <c r="A6" s="55" t="s">
+        <v>431</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>433</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51">
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54">
         <v>44856.0</v>
       </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="52" t="s">
+      <c r="L6" s="52"/>
+      <c r="M6" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="53" t="s">
+      <c r="N6" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="50"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
     </row>
     <row r="7">
       <c r="J7" s="39"/>
@@ -9734,13 +13604,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>397</v>
+        <v>435</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -9776,13 +13646,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>

--- a/documentation-generator/vocab_csv/gdpr.xlsx
+++ b/documentation-generator/vocab_csv/gdpr.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="469">
   <si>
     <t>Term</t>
   </si>
@@ -806,7 +806,7 @@
     <t>A7-3 Right to Withdraw Consent</t>
   </si>
   <si>
-    <t>Right to withdraw consent</t>
+    <t>Right to withdraw consent at any time</t>
   </si>
   <si>
     <t>(GDPR Art.7-3,https://eur-lex.europa.eu/eli/reg/2016/679/art_7/par_3/oj)</t>
@@ -822,6 +822,93 @@
   </si>
   <si>
     <t>GDPR Art.77,https://eur-lex.europa.eu/eli/reg/2016/679/art_77/oj)</t>
+  </si>
+  <si>
+    <t>Exercising Rights</t>
+  </si>
+  <si>
+    <t>DirectDataCollectionNotice</t>
+  </si>
+  <si>
+    <t>Direct Data Collection Notice</t>
+  </si>
+  <si>
+    <t>A Notice provided in fulfilment of GDPR's Art.13 regarding information to be provided where personal data are collected from the data subject</t>
+  </si>
+  <si>
+    <t>dpv:RightFulfilmentNotice</t>
+  </si>
+  <si>
+    <t>IndirectDataCollectionNotice</t>
+  </si>
+  <si>
+    <t>Indirect Data Collection Notice</t>
+  </si>
+  <si>
+    <t>A Notice provided in fulfilment of GDPR's Art.14 regarding information to be provided where personal data are not collected from the data subject</t>
+  </si>
+  <si>
+    <t>SARNotice</t>
+  </si>
+  <si>
+    <t>SAR Notice</t>
+  </si>
+  <si>
+    <t>A Notice provided in fulfilment of GDPR's Art.15 regarding information to be provided for Right of Access or Subject Access Right (SAR)</t>
+  </si>
+  <si>
+    <t>A.16 Rectification</t>
+  </si>
+  <si>
+    <t>Input: PersonalData (IncorrectData) + PersonalData (VerifiedData)</t>
+  </si>
+  <si>
+    <t>A.17 Erasure</t>
+  </si>
+  <si>
+    <t>Input: PersonalData</t>
+  </si>
+  <si>
+    <t>A.18 Restriction of Processing</t>
+  </si>
+  <si>
+    <t>Input: PersonalDataHandling</t>
+  </si>
+  <si>
+    <t>RightsRecipientsNotice</t>
+  </si>
+  <si>
+    <t>Rights Recipients Notice</t>
+  </si>
+  <si>
+    <t>A Notice provided in fulfilment of GDPR's Art.19 regarding Recipients to whom a rights exercise has been communicated, such as regarding rectification (A.16) or erasure of personal data (A.17) or restriction of processing (A.18)</t>
+  </si>
+  <si>
+    <t>dcat:Resource</t>
+  </si>
+  <si>
+    <t>A dataset or catalogue or any other resource provided in fulfilment of a Right Exercise, such as for GDPR's Art.15 regarding Right of Access or Art.20 regarding Right to Data Portability. The associated properties from DCAT and DCMI DCT vocabularies provide convenient means to express metadata such as URL for accessing the data, its temporal validity and acecss restrictions, and specific datasets present along with their schemas.</t>
+  </si>
+  <si>
+    <t>A.21 Object to Processing</t>
+  </si>
+  <si>
+    <t>Input: PersonalDataHandling + isImplementedUsingTechnology</t>
+  </si>
+  <si>
+    <t>A.22 Automated Decision Making</t>
+  </si>
+  <si>
+    <t>A.7-3 Withdraw Consent</t>
+  </si>
+  <si>
+    <t>Input: ConsentRecord</t>
+  </si>
+  <si>
+    <t>A.77 Right to Complaint</t>
+  </si>
+  <si>
+    <t>TODO in the future</t>
   </si>
   <si>
     <t>AdHocContractualClauses</t>
@@ -1449,7 +1536,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1525,6 +1612,14 @@
       <color rgb="FF274E13"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="&quot;arial&quot;"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="&quot;Arial&quot;"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF000000"/>
     </font>
@@ -1541,10 +1636,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="&quot;Arial&quot;"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -1637,7 +1728,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1729,22 +1820,19 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1756,16 +1844,22 @@
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1777,13 +1871,13 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1795,13 +1889,13 @@
     <xf borderId="0" fillId="4" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -4438,6 +4532,10 @@
       <c r="Z2" s="28"/>
       <c r="AA2" s="28"/>
       <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
@@ -4488,6 +4586,10 @@
       <c r="Z3" s="28"/>
       <c r="AA3" s="28"/>
       <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
     </row>
     <row r="4">
       <c r="A4" s="26" t="s">
@@ -4538,6 +4640,10 @@
       <c r="Z4" s="28"/>
       <c r="AA4" s="28"/>
       <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
@@ -4588,6 +4694,10 @@
       <c r="Z5" s="28"/>
       <c r="AA5" s="28"/>
       <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
     </row>
     <row r="6">
       <c r="A6" s="26" t="s">
@@ -4638,6 +4748,10 @@
       <c r="Z6" s="28"/>
       <c r="AA6" s="28"/>
       <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
     </row>
     <row r="7">
       <c r="A7" s="26" t="s">
@@ -4688,6 +4802,10 @@
       <c r="Z7" s="28"/>
       <c r="AA7" s="28"/>
       <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
     </row>
     <row r="8">
       <c r="A8" s="26" t="s">
@@ -4738,6 +4856,10 @@
       <c r="Z8" s="28"/>
       <c r="AA8" s="28"/>
       <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
     </row>
     <row r="9">
       <c r="A9" s="26" t="s">
@@ -4788,6 +4910,10 @@
       <c r="Z9" s="28"/>
       <c r="AA9" s="28"/>
       <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
     </row>
     <row r="10">
       <c r="A10" s="26" t="s">
@@ -4838,6 +4964,10 @@
       <c r="Z10" s="28"/>
       <c r="AA10" s="28"/>
       <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
     </row>
     <row r="11">
       <c r="A11" s="26" t="s">
@@ -4888,6 +5018,10 @@
       <c r="Z11" s="28"/>
       <c r="AA11" s="28"/>
       <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
     </row>
     <row r="12">
       <c r="A12" s="26" t="s">
@@ -4938,6 +5072,10 @@
       <c r="Z12" s="28"/>
       <c r="AA12" s="28"/>
       <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
@@ -4988,48 +5126,313 @@
       <c r="Z13" s="28"/>
       <c r="AA13" s="28"/>
       <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
     </row>
     <row r="14">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="32"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="M14" s="11"/>
     </row>
     <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>268</v>
+      </c>
       <c r="C15" s="32"/>
     </row>
     <row r="16">
-      <c r="C16" s="32"/>
+      <c r="A16" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
     </row>
     <row r="17">
-      <c r="C17" s="32"/>
+      <c r="A17" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
     </row>
     <row r="18">
-      <c r="C18" s="32"/>
+      <c r="A18" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
     </row>
     <row r="19">
-      <c r="C19" s="32"/>
+      <c r="A19" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="10" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="20">
-      <c r="C20" s="32"/>
+      <c r="A20" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="10" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="21">
-      <c r="C21" s="32"/>
+      <c r="A21" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="10" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="22">
-      <c r="C22" s="32"/>
+      <c r="A22" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
     </row>
     <row r="23">
-      <c r="C23" s="32"/>
+      <c r="A23" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
     </row>
     <row r="24">
-      <c r="C24" s="32"/>
+      <c r="A24" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="10" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="25">
-      <c r="C25" s="32"/>
+      <c r="A25" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="10" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="26">
-      <c r="C26" s="32"/>
+      <c r="A26" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="10" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="27">
-      <c r="C27" s="32"/>
+      <c r="A27" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="10" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="28">
       <c r="C28" s="32"/>
@@ -7951,12 +8354,12 @@
       <c r="C1000" s="32"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AB30">
+  <conditionalFormatting sqref="A2:AF30">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB30">
+  <conditionalFormatting sqref="A2:AF30">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$M2="proposed"</formula>
     </cfRule>
@@ -8046,16 +8449,16 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>19</v>
@@ -8064,8 +8467,8 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="33" t="s">
-        <v>272</v>
+      <c r="J2" s="37" t="s">
+        <v>301</v>
       </c>
       <c r="K2" s="13">
         <v>44461.0</v>
@@ -8078,7 +8481,7 @@
         <v>23</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -8095,17 +8498,17 @@
       <c r="AB2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>275</v>
+      <c r="A3" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>304</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>19</v>
@@ -8114,8 +8517,8 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="36" t="s">
-        <v>278</v>
+      <c r="J3" s="38" t="s">
+        <v>307</v>
       </c>
       <c r="K3" s="13">
         <v>44461.0</v>
@@ -8125,10 +8528,10 @@
         <v>22</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -8146,16 +8549,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>19</v>
@@ -8164,8 +8567,8 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="33" t="s">
-        <v>283</v>
+      <c r="J4" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="K4" s="13">
         <v>44461.0</v>
@@ -8178,7 +8581,7 @@
         <v>23</v>
       </c>
       <c r="O4" s="29" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -8196,16 +8599,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>19</v>
@@ -8214,8 +8617,8 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="33" t="s">
-        <v>287</v>
+      <c r="J5" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="K5" s="13">
         <v>44461.0</v>
@@ -8228,7 +8631,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="29" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -8246,16 +8649,16 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>19</v>
@@ -8264,8 +8667,8 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="33" t="s">
-        <v>292</v>
+      <c r="J6" s="37" t="s">
+        <v>321</v>
       </c>
       <c r="K6" s="13">
         <v>44461.0</v>
@@ -8275,10 +8678,10 @@
         <v>22</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -8296,16 +8699,16 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
@@ -8325,10 +8728,10 @@
         <v>22</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="O7" s="29" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -8346,16 +8749,16 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>19</v>
@@ -8375,10 +8778,10 @@
         <v>22</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="O8" s="29" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -8395,17 +8798,17 @@
       <c r="AB8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>302</v>
+      <c r="A9" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>331</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>19</v>
@@ -8414,8 +8817,8 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="38" t="s">
-        <v>305</v>
+      <c r="J9" s="40" t="s">
+        <v>334</v>
       </c>
       <c r="K9" s="13">
         <v>44461.0</v>
@@ -8425,10 +8828,10 @@
         <v>22</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="O9" s="29" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -8446,16 +8849,16 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>19</v>
@@ -8464,8 +8867,8 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="33" t="s">
-        <v>310</v>
+      <c r="J10" s="37" t="s">
+        <v>339</v>
       </c>
       <c r="K10" s="13">
         <v>44461.0</v>
@@ -8475,10 +8878,10 @@
         <v>22</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
@@ -8599,16 +9002,16 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>19</v>
@@ -8617,7 +9020,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="39"/>
+      <c r="J2" s="41"/>
       <c r="K2" s="13">
         <v>44734.0</v>
       </c>
@@ -8646,17 +9049,17 @@
       <c r="AB2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>317</v>
+      <c r="A3" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>346</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>19</v>
@@ -8695,16 +9098,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>19</v>
@@ -8713,7 +9116,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="39"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="13">
         <v>44734.0</v>
       </c>
@@ -8747,24 +9150,24 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="J5" s="39"/>
+      <c r="J5" s="41"/>
       <c r="K5" s="13"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="39"/>
+      <c r="O5" s="41"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>19</v>
@@ -8773,7 +9176,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="39"/>
+      <c r="J6" s="41"/>
       <c r="K6" s="13">
         <v>44734.0</v>
       </c>
@@ -8803,25 +9206,25 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="39"/>
+      <c r="J7" s="41"/>
       <c r="K7" s="13">
         <v>44734.0</v>
       </c>
@@ -8851,25 +9254,25 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="39"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="13">
         <v>44734.0</v>
       </c>
@@ -8903,24 +9306,24 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="J9" s="39"/>
+      <c r="J9" s="41"/>
       <c r="K9" s="13"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="39"/>
+      <c r="O9" s="41"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>19</v>
@@ -8929,7 +9332,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="39"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="13">
         <v>44734.0</v>
       </c>
@@ -8959,25 +9362,25 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>338</v>
+        <v>366</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>367</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="40"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="13">
         <v>44734.0</v>
       </c>
@@ -9007,25 +9410,25 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>343</v>
+        <v>371</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>372</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="39"/>
+      <c r="J12" s="41"/>
       <c r="K12" s="13">
         <v>44734.0</v>
       </c>
@@ -9055,19 +9458,19 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>346</v>
+        <v>374</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>375</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -9110,20 +9513,20 @@
       <c r="K14" s="13"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="39"/>
+      <c r="O14" s="41"/>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>19</v>
@@ -9162,19 +9565,19 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -9210,19 +9613,19 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -9258,19 +9661,19 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>359</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>353</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>330</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -9287,7 +9690,7 @@
       <c r="N18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="39"/>
+      <c r="O18" s="41"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
@@ -9304,19 +9707,19 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -9362,16 +9765,16 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>19</v>
@@ -9389,7 +9792,7 @@
         <v>22</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
@@ -9408,19 +9811,19 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -9435,7 +9838,7 @@
         <v>22</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
@@ -9454,19 +9857,19 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -9481,7 +9884,7 @@
         <v>22</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
@@ -9510,16 +9913,16 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>19</v>
@@ -9537,7 +9940,7 @@
         <v>22</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
@@ -9556,19 +9959,19 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -9583,7 +9986,7 @@
         <v>22</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
@@ -9602,19 +10005,19 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -9629,7 +10032,7 @@
         <v>22</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
@@ -9716,13 +10119,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -9730,7 +10133,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="43" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -9739,7 +10142,7 @@
       <c r="K1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="43" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="6" t="s">
@@ -9753,17 +10156,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="43" t="s">
-        <v>388</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>388</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>389</v>
+      <c r="A2" s="44" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>417</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>418</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -9791,17 +10194,17 @@
       <c r="AB2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="43" t="s">
-        <v>390</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>390</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>391</v>
+      <c r="A3" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>420</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="43"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -9830,13 +10233,13 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>393</v>
+        <v>421</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>422</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -9868,13 +10271,13 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>395</v>
+        <v>423</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>424</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -9889,7 +10292,7 @@
         <v>22</v>
       </c>
       <c r="N5" s="11"/>
-      <c r="O5" s="39"/>
+      <c r="O5" s="41"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -9906,13 +10309,13 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>397</v>
+        <v>425</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>426</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -9944,13 +10347,13 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>399</v>
+        <v>427</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>428</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -9982,13 +10385,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>401</v>
+        <v>429</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>430</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -10020,13 +10423,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>403</v>
+        <v>431</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>432</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -10058,13 +10461,13 @@
     </row>
     <row r="10">
       <c r="A10" s="26" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>405</v>
+        <v>433</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>434</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="28"/>
@@ -10096,13 +10499,13 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>407</v>
+        <v>435</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>436</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -10134,13 +10537,13 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>409</v>
+        <v>437</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>438</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -10172,13 +10575,13 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>411</v>
+        <v>439</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>440</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -10210,13 +10613,13 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>413</v>
+        <v>441</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>442</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -10248,13 +10651,13 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>415</v>
+        <v>443</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>444</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -10286,13 +10689,13 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>417</v>
+        <v>445</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>446</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -10324,13 +10727,13 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>419</v>
+        <v>447</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>448</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -10361,26 +10764,26 @@
       <c r="AB17" s="11"/>
     </row>
     <row r="18">
-      <c r="C18" s="44"/>
+      <c r="C18" s="45"/>
     </row>
     <row r="19">
-      <c r="C19" s="44"/>
+      <c r="C19" s="45"/>
     </row>
     <row r="20">
-      <c r="A20" s="41"/>
-      <c r="C20" s="44"/>
+      <c r="A20" s="35"/>
+      <c r="C20" s="45"/>
     </row>
     <row r="21">
-      <c r="C21" s="44"/>
+      <c r="C21" s="45"/>
     </row>
     <row r="22">
-      <c r="C22" s="41"/>
+      <c r="C22" s="35"/>
     </row>
     <row r="23">
-      <c r="C23" s="41"/>
+      <c r="C23" s="35"/>
     </row>
     <row r="24">
-      <c r="C24" s="44"/>
+      <c r="C24" s="45"/>
     </row>
     <row r="25">
       <c r="C25" s="32"/>
@@ -13372,245 +13775,245 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="45" t="s">
-        <v>420</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
+      <c r="A2" s="46" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
     </row>
     <row r="3">
-      <c r="A3" s="49" t="s">
-        <v>421</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>422</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>423</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>424</v>
-      </c>
-      <c r="E3" s="51" t="s">
+      <c r="A3" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>452</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="E3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54">
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55">
         <v>44856.0</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="55" t="s">
+      <c r="L3" s="53"/>
+      <c r="M3" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
     </row>
     <row r="4">
-      <c r="A4" s="51" t="s">
-        <v>425</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>426</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>423</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>427</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>330</v>
-      </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54">
+      <c r="A4" s="52" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>452</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55">
         <v>44856.0</v>
       </c>
-      <c r="L4" s="52"/>
-      <c r="M4" s="55" t="s">
+      <c r="L4" s="53"/>
+      <c r="M4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="56" t="s">
+      <c r="N4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="53"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
     </row>
     <row r="5">
-      <c r="A5" s="51" t="s">
-        <v>428</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>429</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>430</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>427</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>330</v>
-      </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54">
+      <c r="A5" s="52" t="s">
+        <v>457</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>458</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>459</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="55">
         <v>44856.0</v>
       </c>
-      <c r="L5" s="52"/>
-      <c r="M5" s="55" t="s">
+      <c r="L5" s="53"/>
+      <c r="M5" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="56" t="s">
+      <c r="N5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="53"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
     </row>
     <row r="6">
-      <c r="A6" s="55" t="s">
-        <v>431</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>432</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>433</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>427</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>330</v>
-      </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="54">
+      <c r="A6" s="56" t="s">
+        <v>460</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="55">
         <v>44856.0</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="55" t="s">
+      <c r="L6" s="53"/>
+      <c r="M6" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="56" t="s">
+      <c r="N6" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="53"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
     </row>
     <row r="7">
-      <c r="J7" s="39"/>
+      <c r="J7" s="41"/>
       <c r="K7" s="13"/>
-      <c r="O7" s="39"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -13618,7 +14021,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="39"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="13"/>
       <c r="L8" s="11"/>
       <c r="M8" s="10" t="s">
@@ -13627,7 +14030,7 @@
       <c r="N8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O8" s="39"/>
+      <c r="O8" s="41"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -13646,13 +14049,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>438</v>
+        <v>466</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>467</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -13660,7 +14063,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="40"/>
+      <c r="J9" s="42"/>
       <c r="K9" s="13"/>
       <c r="L9" s="11"/>
       <c r="M9" s="10" t="s">
@@ -13669,7 +14072,7 @@
       <c r="N9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="39"/>
+      <c r="O9" s="41"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
@@ -13687,31 +14090,31 @@
       <c r="AD9" s="11"/>
     </row>
     <row r="10">
-      <c r="C10" s="41"/>
-      <c r="J10" s="39"/>
+      <c r="C10" s="35"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="13"/>
-      <c r="O10" s="39"/>
+      <c r="O10" s="41"/>
     </row>
     <row r="11">
-      <c r="C11" s="41"/>
+      <c r="C11" s="35"/>
       <c r="K11" s="13"/>
-      <c r="O11" s="39"/>
+      <c r="O11" s="41"/>
     </row>
     <row r="12">
       <c r="K12" s="13"/>
-      <c r="O12" s="39"/>
+      <c r="O12" s="41"/>
     </row>
     <row r="13">
       <c r="K13" s="13"/>
-      <c r="O13" s="39"/>
+      <c r="O13" s="41"/>
     </row>
     <row r="14">
       <c r="K14" s="13"/>
-      <c r="O14" s="39"/>
+      <c r="O14" s="41"/>
     </row>
     <row r="15">
       <c r="K15" s="13"/>
-      <c r="O15" s="39"/>
+      <c r="O15" s="41"/>
     </row>
     <row r="16">
       <c r="K16" s="13"/>

--- a/documentation-generator/vocab_csv/gdpr.xlsx
+++ b/documentation-generator/vocab_csv/gdpr.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="470">
   <si>
     <t>Term</t>
   </si>
@@ -1478,18 +1478,21 @@
     <t>GDPR Lawfulness</t>
   </si>
   <si>
+    <t>Status or state associated with being lawful or legally compliant regarding GDPR</t>
+  </si>
+  <si>
+    <t>dpv:Lawfulness</t>
+  </si>
+  <si>
+    <t>GDPRCompliant</t>
+  </si>
+  <si>
+    <t>GDPR Compliant</t>
+  </si>
+  <si>
     <t>State of being lawful or legally compliant for GDPR</t>
   </si>
   <si>
-    <t>dpv:Lawfulness</t>
-  </si>
-  <si>
-    <t>GDPRCompliant</t>
-  </si>
-  <si>
-    <t>GDPR Compliant</t>
-  </si>
-  <si>
     <t>dpv-gdpr:GDPRLawulness</t>
   </si>
   <si>
@@ -1511,10 +1514,10 @@
     <t>State where lawfulness or compliance with GDPR is unknown</t>
   </si>
   <si>
-    <t>Propotionality</t>
-  </si>
-  <si>
-    <t>Proportionality</t>
+    <t>ProcessingPropotionality</t>
+  </si>
+  <si>
+    <t>Processing Proportionality</t>
   </si>
   <si>
     <t>The evaluation of whether processing is proportional and in balance with impact to rights</t>
@@ -1613,11 +1616,11 @@
     </font>
     <font>
       <color rgb="FF000000"/>
-      <name val="&quot;arial&quot;"/>
+      <name val="&quot;Arial&quot;"/>
     </font>
     <font>
       <color rgb="FF000000"/>
-      <name val="&quot;Arial&quot;"/>
+      <name val="&quot;arial&quot;"/>
     </font>
     <font>
       <u/>
@@ -1728,7 +1731,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1829,6 +1832,9 @@
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1878,6 +1884,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1887,9 +1896,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5166,12 +5172,16 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="13">
+        <v>44874.0</v>
+      </c>
       <c r="L16" s="11"/>
       <c r="M16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="11"/>
+      <c r="N16" s="34" t="s">
+        <v>223</v>
+      </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
@@ -5192,7 +5202,7 @@
       <c r="AF16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="35" t="s">
         <v>273</v>
       </c>
       <c r="B17" s="33" t="s">
@@ -5201,7 +5211,7 @@
       <c r="C17" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="34" t="s">
         <v>272</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -5212,12 +5222,16 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+      <c r="K17" s="36">
+        <v>44874.0</v>
+      </c>
       <c r="L17" s="11"/>
       <c r="M17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="11"/>
+      <c r="N17" s="34" t="s">
+        <v>223</v>
+      </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
@@ -5247,7 +5261,7 @@
       <c r="C18" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="34" t="s">
         <v>272</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -5258,12 +5272,16 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
+      <c r="K18" s="36">
+        <v>44874.0</v>
+      </c>
       <c r="L18" s="11"/>
       <c r="M18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N18" s="11"/>
+      <c r="N18" s="34" t="s">
+        <v>223</v>
+      </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
@@ -5291,23 +5309,41 @@
       <c r="C19" s="10" t="s">
         <v>280</v>
       </c>
+      <c r="K19" s="36">
+        <v>44874.0</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="B20" s="36"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="10" t="s">
         <v>282</v>
+      </c>
+      <c r="K20" s="36">
+        <v>44874.0</v>
+      </c>
+      <c r="N20" s="34" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="10" t="s">
         <v>284</v>
+      </c>
+      <c r="K21" s="36">
+        <v>44874.0</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="22">
@@ -5317,10 +5353,10 @@
       <c r="B22" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="34" t="s">
         <v>272</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -5331,12 +5367,16 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
+      <c r="K22" s="36">
+        <v>44874.0</v>
+      </c>
       <c r="L22" s="11"/>
       <c r="M22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N22" s="11"/>
+      <c r="N22" s="34" t="s">
+        <v>223</v>
+      </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
@@ -5373,12 +5413,16 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
+      <c r="K23" s="36">
+        <v>44874.0</v>
+      </c>
       <c r="L23" s="11"/>
       <c r="M23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="11"/>
+      <c r="N23" s="34" t="s">
+        <v>223</v>
+      </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
@@ -5402,16 +5446,22 @@
       <c r="A24" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="10" t="s">
         <v>291</v>
+      </c>
+      <c r="K24" s="36">
+        <v>44874.0</v>
+      </c>
+      <c r="N24" s="34" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B25" s="36"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="10" t="s">
         <v>284</v>
       </c>
@@ -5420,7 +5470,7 @@
       <c r="A26" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B26" s="36"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="10" t="s">
         <v>294</v>
       </c>
@@ -5429,7 +5479,7 @@
       <c r="A27" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="B27" s="36"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="10" t="s">
         <v>296</v>
       </c>
@@ -8467,7 +8517,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="38" t="s">
         <v>301</v>
       </c>
       <c r="K2" s="13">
@@ -8498,7 +8548,7 @@
       <c r="AB2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>303</v>
       </c>
       <c r="B3" s="33" t="s">
@@ -8517,7 +8567,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="39" t="s">
         <v>307</v>
       </c>
       <c r="K3" s="13">
@@ -8567,7 +8617,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="38" t="s">
         <v>312</v>
       </c>
       <c r="K4" s="13">
@@ -8617,7 +8667,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="38" t="s">
         <v>316</v>
       </c>
       <c r="K5" s="13">
@@ -8667,7 +8717,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="38" t="s">
         <v>321</v>
       </c>
       <c r="K6" s="13">
@@ -8798,7 +8848,7 @@
       <c r="AB8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="40" t="s">
         <v>330</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -8817,7 +8867,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="41" t="s">
         <v>334</v>
       </c>
       <c r="K9" s="13">
@@ -8867,7 +8917,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="38" t="s">
         <v>339</v>
       </c>
       <c r="K10" s="13">
@@ -9020,7 +9070,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="41"/>
+      <c r="J2" s="42"/>
       <c r="K2" s="13">
         <v>44734.0</v>
       </c>
@@ -9116,7 +9166,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="41"/>
+      <c r="J4" s="42"/>
       <c r="K4" s="13">
         <v>44734.0</v>
       </c>
@@ -9150,11 +9200,11 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="J5" s="41"/>
+      <c r="J5" s="42"/>
       <c r="K5" s="13"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="41"/>
+      <c r="O5" s="42"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
@@ -9176,7 +9226,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="41"/>
+      <c r="J6" s="42"/>
       <c r="K6" s="13">
         <v>44734.0</v>
       </c>
@@ -9224,7 +9274,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="41"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="13">
         <v>44734.0</v>
       </c>
@@ -9272,7 +9322,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="41"/>
+      <c r="J8" s="42"/>
       <c r="K8" s="13">
         <v>44734.0</v>
       </c>
@@ -9306,11 +9356,11 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="J9" s="41"/>
+      <c r="J9" s="42"/>
       <c r="K9" s="13"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="41"/>
+      <c r="O9" s="42"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
@@ -9332,7 +9382,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="41"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="13">
         <v>44734.0</v>
       </c>
@@ -9380,7 +9430,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="42"/>
+      <c r="J11" s="43"/>
       <c r="K11" s="13">
         <v>44734.0</v>
       </c>
@@ -9415,7 +9465,7 @@
       <c r="B12" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>372</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -9428,7 +9478,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="41"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="13">
         <v>44734.0</v>
       </c>
@@ -9463,7 +9513,7 @@
       <c r="B13" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>375</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -9513,7 +9563,7 @@
       <c r="K14" s="13"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="41"/>
+      <c r="O14" s="42"/>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
@@ -9669,7 +9719,7 @@
       <c r="C18" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="34" t="s">
         <v>382</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -9690,7 +9740,7 @@
       <c r="N18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="41"/>
+      <c r="O18" s="42"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
@@ -10133,7 +10183,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="44" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -10142,7 +10192,7 @@
       <c r="K1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="44" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="6" t="s">
@@ -10156,17 +10206,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>417</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>417</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="46" t="s">
         <v>418</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -10194,17 +10244,17 @@
       <c r="AB2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>419</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>419</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>420</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="44"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -10238,7 +10288,7 @@
       <c r="B4" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>422</v>
       </c>
       <c r="D4" s="11"/>
@@ -10276,7 +10326,7 @@
       <c r="B5" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>424</v>
       </c>
       <c r="D5" s="11"/>
@@ -10292,7 +10342,7 @@
         <v>22</v>
       </c>
       <c r="N5" s="11"/>
-      <c r="O5" s="41"/>
+      <c r="O5" s="42"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -10314,7 +10364,7 @@
       <c r="B6" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="46" t="s">
         <v>426</v>
       </c>
       <c r="D6" s="11"/>
@@ -10352,7 +10402,7 @@
       <c r="B7" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="46" t="s">
         <v>428</v>
       </c>
       <c r="D7" s="11"/>
@@ -10390,7 +10440,7 @@
       <c r="B8" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>430</v>
       </c>
       <c r="D8" s="11"/>
@@ -10428,7 +10478,7 @@
       <c r="B9" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>432</v>
       </c>
       <c r="D9" s="11"/>
@@ -10466,7 +10516,7 @@
       <c r="B10" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>434</v>
       </c>
       <c r="D10" s="11"/>
@@ -10504,7 +10554,7 @@
       <c r="B11" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>436</v>
       </c>
       <c r="D11" s="11"/>
@@ -10542,7 +10592,7 @@
       <c r="B12" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="46" t="s">
         <v>438</v>
       </c>
       <c r="D12" s="11"/>
@@ -10580,7 +10630,7 @@
       <c r="B13" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="46" t="s">
         <v>440</v>
       </c>
       <c r="D13" s="11"/>
@@ -10618,7 +10668,7 @@
       <c r="B14" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="46" t="s">
         <v>442</v>
       </c>
       <c r="D14" s="11"/>
@@ -10656,7 +10706,7 @@
       <c r="B15" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="46" t="s">
         <v>444</v>
       </c>
       <c r="D15" s="11"/>
@@ -10694,7 +10744,7 @@
       <c r="B16" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="46" t="s">
         <v>446</v>
       </c>
       <c r="D16" s="11"/>
@@ -10732,7 +10782,7 @@
       <c r="B17" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>448</v>
       </c>
       <c r="D17" s="11"/>
@@ -10764,26 +10814,26 @@
       <c r="AB17" s="11"/>
     </row>
     <row r="18">
-      <c r="C18" s="45"/>
+      <c r="C18" s="46"/>
     </row>
     <row r="19">
-      <c r="C19" s="45"/>
+      <c r="C19" s="46"/>
     </row>
     <row r="20">
-      <c r="A20" s="35"/>
-      <c r="C20" s="45"/>
+      <c r="A20" s="34"/>
+      <c r="C20" s="46"/>
     </row>
     <row r="21">
-      <c r="C21" s="45"/>
+      <c r="C21" s="46"/>
     </row>
     <row r="22">
-      <c r="C22" s="35"/>
+      <c r="C22" s="34"/>
     </row>
     <row r="23">
-      <c r="C23" s="35"/>
+      <c r="C23" s="34"/>
     </row>
     <row r="24">
-      <c r="C24" s="45"/>
+      <c r="C24" s="46"/>
     </row>
     <row r="25">
       <c r="C25" s="32"/>
@@ -13775,245 +13825,245 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>449</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
     </row>
     <row r="3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>450</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>451</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="53" t="s">
         <v>452</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="54" t="s">
         <v>453</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55">
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57">
         <v>44856.0</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="56" t="s">
+      <c r="L3" s="55"/>
+      <c r="M3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="57" t="s">
+      <c r="N3" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
     </row>
     <row r="4">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>454</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="59" t="s">
         <v>455</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>452</v>
-      </c>
-      <c r="D4" s="52" t="s">
+      <c r="C4" s="54" t="s">
         <v>456</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="D4" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="E4" s="54" t="s">
         <v>359</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55">
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57">
         <v>44856.0</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="56" t="s">
+      <c r="L4" s="55"/>
+      <c r="M4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="57" t="s">
+      <c r="N4" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="54"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
     </row>
     <row r="5">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="54" t="s">
+        <v>458</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>460</v>
+      </c>
+      <c r="D5" s="54" t="s">
         <v>457</v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>458</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>459</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>456</v>
-      </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="54" t="s">
         <v>359</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="55">
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57">
         <v>44856.0</v>
       </c>
-      <c r="L5" s="53"/>
-      <c r="M5" s="56" t="s">
+      <c r="L5" s="55"/>
+      <c r="M5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="57" t="s">
+      <c r="N5" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="54"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
     </row>
     <row r="6">
-      <c r="A6" s="56" t="s">
-        <v>460</v>
-      </c>
-      <c r="B6" s="57" t="s">
+      <c r="A6" s="53" t="s">
         <v>461</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>456</v>
-      </c>
-      <c r="E6" s="52" t="s">
+      <c r="C6" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>359</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55">
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57">
         <v>44856.0</v>
       </c>
-      <c r="L6" s="53"/>
-      <c r="M6" s="56" t="s">
+      <c r="L6" s="55"/>
+      <c r="M6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="57" t="s">
+      <c r="N6" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="54"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55"/>
     </row>
     <row r="7">
-      <c r="J7" s="41"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="13"/>
-      <c r="O7" s="41"/>
+      <c r="O7" s="42"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -14021,7 +14071,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="41"/>
+      <c r="J8" s="42"/>
       <c r="K8" s="13"/>
       <c r="L8" s="11"/>
       <c r="M8" s="10" t="s">
@@ -14030,7 +14080,7 @@
       <c r="N8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O8" s="41"/>
+      <c r="O8" s="42"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -14049,13 +14099,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -14063,7 +14113,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="42"/>
+      <c r="J9" s="43"/>
       <c r="K9" s="13"/>
       <c r="L9" s="11"/>
       <c r="M9" s="10" t="s">
@@ -14072,7 +14122,7 @@
       <c r="N9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="41"/>
+      <c r="O9" s="42"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
@@ -14090,31 +14140,31 @@
       <c r="AD9" s="11"/>
     </row>
     <row r="10">
-      <c r="C10" s="35"/>
-      <c r="J10" s="41"/>
+      <c r="C10" s="34"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="13"/>
-      <c r="O10" s="41"/>
+      <c r="O10" s="42"/>
     </row>
     <row r="11">
-      <c r="C11" s="35"/>
+      <c r="C11" s="34"/>
       <c r="K11" s="13"/>
-      <c r="O11" s="41"/>
+      <c r="O11" s="42"/>
     </row>
     <row r="12">
       <c r="K12" s="13"/>
-      <c r="O12" s="41"/>
+      <c r="O12" s="42"/>
     </row>
     <row r="13">
       <c r="K13" s="13"/>
-      <c r="O13" s="41"/>
+      <c r="O13" s="42"/>
     </row>
     <row r="14">
       <c r="K14" s="13"/>
-      <c r="O14" s="41"/>
+      <c r="O14" s="42"/>
     </row>
     <row r="15">
       <c r="K15" s="13"/>
-      <c r="O15" s="41"/>
+      <c r="O15" s="42"/>
     </row>
     <row r="16">
       <c r="K16" s="13"/>

--- a/documentation-generator/vocab_csv/gdpr.xlsx
+++ b/documentation-generator/vocab_csv/gdpr.xlsx
@@ -854,7 +854,7 @@
     <t>SAR Notice</t>
   </si>
   <si>
-    <t>A Notice provided in fulfilment of GDPR's Art.15 regarding information to be provided for Right of Access or Subject Access Right (SAR)</t>
+    <t>A Notice provided in fulfilment of GDPR's Art.15 regarding information to be provided for Right of Access or Subject Access Request (SAR)</t>
   </si>
   <si>
     <t>A.16 Rectification</t>

--- a/documentation-generator/vocab_csv/gdpr.xlsx
+++ b/documentation-generator/vocab_csv/gdpr.xlsx
@@ -7,10 +7,12 @@
     <sheet state="visible" name="GDPR_LegalBasis_SpecialCategory" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="GDPR_LegalBasis_DataTransfer" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="GDPR_LegalRights" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="GDPR_DataTransfers" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="GDPR_DPIA" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="GDPR_DPIA_properties" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="GDPR_compliance" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="GDPR_LegalBasis_Rights_Mapping" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="GDPR_DataTransfers" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="GDPR_DPIA" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="GDPR_DPIA_properties" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="GDPR_compliance" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="GDPR_entities" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -18,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="508">
   <si>
     <t>Term</t>
   </si>
@@ -122,7 +124,7 @@
     <t>Legal basis based on data subject's given explicit consent to the processing of his or her personal data for one or more specific purposes</t>
   </si>
   <si>
-    <t>dpv-gdpr:A6-1a,dpv:ExplicitlyExpressedConsent</t>
+    <t>dpv-gdpr:A6-1-a,dpv:ExplicitlyExpressedConsent</t>
   </si>
   <si>
     <t>Valid consent in this case would have requirements for being 'explicit' in addition to requirements defined by A4-11. This is also mentioned in the Article 29 Working Party document "Guidelines on Consent under Regulation 2016/679 (wp259rev.01)"</t>
@@ -704,7 +706,7 @@
     <t>The transfer is necessary in order to protect the vital interests of the data subject or of other persons, where the person is physically or legally incapable of giving consent.</t>
   </si>
   <si>
-    <t>dpv:DataTransferLegalBasis,dpv:VitalInterestOfNatualPerson</t>
+    <t>dpv:DataTransferLegalBasis,dpv:VitalInterestOfNaturalPerson</t>
   </si>
   <si>
     <t>(GDPR Art.49-1f,https://eur-lex.europa.eu/eli/reg/2016/679/art_49/par_1/pnt_f/oj)</t>
@@ -987,6 +989,15 @@
   </si>
   <si>
     <t>TODO in the future</t>
+  </si>
+  <si>
+    <t>Legal Basis</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>AdHocContractualClauses</t>
@@ -1571,7 +1582,7 @@
     <t>State of being lawful or legally compliant for GDPR</t>
   </si>
   <si>
-    <t>dpv-gdpr:GDPRLawulness</t>
+    <t>dpv-gdpr:GDPRLawfulness</t>
   </si>
   <si>
     <t>GDPRNonCompliant</t>
@@ -1608,6 +1619,33 @@
   </si>
   <si>
     <t>The systematic and extensive evaluation of personal aspects</t>
+  </si>
+  <si>
+    <t>Authorities</t>
+  </si>
+  <si>
+    <t>LeadSupervisoryAuthority</t>
+  </si>
+  <si>
+    <t>dpv:DataProtectionAuthority</t>
+  </si>
+  <si>
+    <t>ConcernedSupervisoryAuthority</t>
+  </si>
+  <si>
+    <t>LocalSupervisoryAuthority</t>
+  </si>
+  <si>
+    <t>Establishments</t>
+  </si>
+  <si>
+    <t>Establishment</t>
+  </si>
+  <si>
+    <t>dpv:Entity</t>
+  </si>
+  <si>
+    <t>MainEstablishment</t>
   </si>
 </sst>
 </file>
@@ -2043,6 +2081,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
@@ -2068,6 +2110,10 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2271,10 +2317,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="C2" sqref="C2" pane="topRight"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -3033,6 +3076,317 @@
     <hyperlink r:id="rId15" ref="O17"/>
   </hyperlinks>
   <drawing r:id="rId16"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="32.13"/>
+    <col customWidth="1" min="2" max="2" width="20.88"/>
+    <col customWidth="1" min="3" max="3" width="38.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="13"/>
+      <c r="O2" s="42"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8"/>
+      <c r="K6" s="13"/>
+      <c r="O6" s="42"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="O7" s="42"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+    </row>
+    <row r="10">
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11">
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12">
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13">
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14">
+      <c r="K14" s="13"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:AD43">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$M2="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AD43">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$M2="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AD43">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$M2="changed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5358,12 +5712,7 @@
       <c r="AF13" s="28"/>
     </row>
     <row r="14">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="M14" s="11"/>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
@@ -8660,6 +9009,693 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="23.25"/>
+    <col customWidth="1" min="2" max="10" width="4.0"/>
+    <col customWidth="1" min="11" max="11" width="4.63"/>
+    <col customWidth="1" min="12" max="12" width="4.0"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:AB17 A22:AB22">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$M2="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AB107">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$M2="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:O17 A22:O22">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$M2="changed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
@@ -8719,16 +9755,16 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>19</v>
@@ -8738,7 +9774,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="38" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K2" s="13">
         <v>44461.0</v>
@@ -8751,7 +9787,7 @@
         <v>23</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -8769,16 +9805,16 @@
     </row>
     <row r="3">
       <c r="A3" s="37" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>19</v>
@@ -8788,7 +9824,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="39" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K3" s="13">
         <v>44461.0</v>
@@ -8798,10 +9834,10 @@
         <v>104</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -8819,16 +9855,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>335</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>332</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>19</v>
@@ -8838,7 +9874,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="38" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K4" s="13">
         <v>44461.0</v>
@@ -8851,7 +9887,7 @@
         <v>23</v>
       </c>
       <c r="O4" s="29" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -8869,16 +9905,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>19</v>
@@ -8888,7 +9924,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="38" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K5" s="13">
         <v>44461.0</v>
@@ -8901,7 +9937,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="29" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -8919,16 +9955,16 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>19</v>
@@ -8938,7 +9974,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="38" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K6" s="13">
         <v>44461.0</v>
@@ -8948,10 +9984,10 @@
         <v>104</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -8969,16 +10005,16 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
@@ -8998,10 +10034,10 @@
         <v>104</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="O7" s="29" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -9019,16 +10055,16 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>355</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>352</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>19</v>
@@ -9048,10 +10084,10 @@
         <v>104</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="O8" s="29" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -9069,16 +10105,16 @@
     </row>
     <row r="9">
       <c r="A9" s="40" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>19</v>
@@ -9088,7 +10124,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="41" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K9" s="13">
         <v>44461.0</v>
@@ -9098,10 +10134,10 @@
         <v>104</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="O9" s="29" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -9119,16 +10155,16 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>19</v>
@@ -9138,7 +10174,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="38" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K10" s="13">
         <v>44461.0</v>
@@ -9148,10 +10184,10 @@
         <v>104</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
@@ -9205,7 +10241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9272,16 +10308,16 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>19</v>
@@ -9320,16 +10356,16 @@
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>373</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>370</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>19</v>
@@ -9368,16 +10404,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>19</v>
@@ -9428,16 +10464,16 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>19</v>
@@ -9476,19 +10512,19 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -9524,19 +10560,19 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>388</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>385</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -9584,16 +10620,16 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>19</v>
@@ -9632,19 +10668,19 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -9680,19 +10716,19 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C12" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>395</v>
-      </c>
       <c r="E12" s="10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -9728,19 +10764,19 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -9787,16 +10823,16 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>19</v>
@@ -9835,19 +10871,19 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -9883,19 +10919,19 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>408</v>
-      </c>
       <c r="E17" s="10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -9931,19 +10967,19 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -9977,19 +11013,19 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -10035,16 +11071,16 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>19</v>
@@ -10062,7 +11098,7 @@
         <v>104</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
@@ -10081,19 +11117,19 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -10108,7 +11144,7 @@
         <v>104</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
@@ -10127,19 +11163,19 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C23" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>425</v>
-      </c>
       <c r="E23" s="10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -10154,7 +11190,7 @@
         <v>104</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
@@ -10183,16 +11219,16 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>19</v>
@@ -10210,7 +11246,7 @@
         <v>104</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
@@ -10229,19 +11265,19 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -10256,7 +11292,7 @@
         <v>104</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
@@ -10275,19 +11311,19 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>436</v>
-      </c>
       <c r="E27" s="10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -10302,7 +11338,7 @@
         <v>104</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
@@ -10355,7 +11391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -10389,13 +11425,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -10427,13 +11463,13 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="45"/>
@@ -10465,13 +11501,13 @@
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="45"/>
@@ -10503,13 +11539,13 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -10541,13 +11577,13 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -10579,13 +11615,13 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -10617,13 +11653,13 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -10655,13 +11691,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -10693,13 +11729,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -10731,13 +11767,13 @@
     </row>
     <row r="10">
       <c r="A10" s="26" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="28"/>
@@ -10769,13 +11805,13 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -10807,13 +11843,13 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -10845,13 +11881,13 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -10883,13 +11919,13 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -10921,13 +11957,13 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -10959,13 +11995,13 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -10997,13 +12033,13 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -13979,7 +15015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14046,7 +15082,7 @@
     </row>
     <row r="2">
       <c r="A2" s="47" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -14080,16 +15116,16 @@
     </row>
     <row r="3">
       <c r="A3" s="51" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E3" s="54" t="s">
         <v>19</v>
@@ -14128,19 +15164,19 @@
     </row>
     <row r="4">
       <c r="A4" s="54" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>482</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>483</v>
+        <v>485</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>486</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F4" s="55"/>
       <c r="G4" s="55"/>
@@ -14176,19 +15212,19 @@
     </row>
     <row r="5">
       <c r="A5" s="54" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C5" s="54" t="s">
+        <v>489</v>
+      </c>
+      <c r="D5" s="53" t="s">
         <v>486</v>
       </c>
-      <c r="D5" s="54" t="s">
-        <v>483</v>
-      </c>
       <c r="E5" s="54" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
@@ -14224,19 +15260,19 @@
     </row>
     <row r="6">
       <c r="A6" s="53" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>489</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>483</v>
+        <v>492</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>486</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
@@ -14277,13 +15313,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -14319,13 +15355,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
